--- a/apps/lcc/LCC Input Sheet.xlsx
+++ b/apps/lcc/LCC Input Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btuser\Documents\GitHub\IAC-Decarb-Tools\apps\lcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5DB93D-F62E-4419-BB41-A52E59903882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78BA654-CEBE-4A0A-BC9F-8C5700221C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{97D6AEB7-8C9F-4C65-9F84-0606D60EF083}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{97D6AEB7-8C9F-4C65-9F84-0606D60EF083}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="8" r:id="rId1"/>
@@ -4150,6 +4150,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4232,33 +4259,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5175,17 +5175,17 @@
   <dimension ref="D12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:Q13"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.7265625" style="21"/>
-    <col min="11" max="11" width="12.7265625" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="10" width="8.7109375" style="21"/>
+    <col min="11" max="11" width="12.7109375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="12" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="239" t="s">
         <v>211</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="P12" s="239"/>
       <c r="Q12" s="239"/>
     </row>
-    <row r="13" spans="4:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="239"/>
       <c r="E13" s="239"/>
       <c r="F13" s="239"/>
@@ -5219,7 +5219,7 @@
       <c r="P13" s="239"/>
       <c r="Q13" s="239"/>
     </row>
-    <row r="14" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -5235,7 +5235,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -5253,7 +5253,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -5269,7 +5269,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -5285,17 +5285,17 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="19" spans="4:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I19" s="242" t="s">
         <v>213</v>
       </c>
       <c r="J19" s="242"/>
       <c r="K19" s="242"/>
     </row>
-    <row r="23" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" s="240"/>
       <c r="E24" s="240"/>
       <c r="F24" s="240"/>
@@ -5311,7 +5311,7 @@
       <c r="P24" s="240"/>
       <c r="Q24" s="240"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" s="240"/>
       <c r="E25" s="240"/>
       <c r="F25" s="240"/>
@@ -5349,35 +5349,35 @@
       <selection pane="topRight" activeCell="E7" sqref="E7:U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="21" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="58.54296875" style="21" customWidth="1"/>
-    <col min="6" max="7" width="17.453125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="21" customWidth="1"/>
-    <col min="10" max="14" width="12.7265625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="21" customWidth="1"/>
-    <col min="18" max="19" width="10.54296875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="21" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="21" customWidth="1"/>
+    <col min="10" max="14" width="12.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="21" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" style="21" customWidth="1"/>
     <col min="20" max="20" width="17" style="21" customWidth="1"/>
-    <col min="21" max="21" width="15.08984375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="14.90625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" style="21" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="21" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="9.1796875" style="21" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" style="21" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="12.453125" style="21" customWidth="1"/>
-    <col min="30" max="30" width="10.7265625" style="21" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="21" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="21" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="21" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="21" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="21" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="21" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="12.42578125" style="21" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="21" customWidth="1"/>
     <col min="31" max="31" width="12" style="21" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="21"/>
+    <col min="32" max="16384" width="8.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
@@ -5393,12 +5393,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="45"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="244" t="s">
         <v>217</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="T7" s="245"/>
       <c r="U7" s="246"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="247"/>
       <c r="F8" s="248"/>
       <c r="G8" s="248"/>
@@ -5438,7 +5438,7 @@
       <c r="T8" s="248"/>
       <c r="U8" s="249"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E9" s="250" t="s">
         <v>131</v>
       </c>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="U9" s="253"/>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="251"/>
       <c r="F10" s="251"/>
       <c r="G10" s="254"/>
@@ -5490,7 +5490,7 @@
       <c r="T10" s="256"/>
       <c r="U10" s="257"/>
     </row>
-    <row r="11" spans="1:31" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="192" t="s">
         <v>13</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="26" customFormat="1" ht="51.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="26" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="D12" s="64"/>
       <c r="E12" s="118"/>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="25" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="25" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="D13" s="74"/>
       <c r="E13" s="85"/>
@@ -5720,7 +5720,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="243"/>
       <c r="C14" s="49"/>
       <c r="D14" s="149">
@@ -5816,7 +5816,7 @@
         <v>-38.751778232491148</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="243"/>
       <c r="C15" s="49"/>
       <c r="D15" s="146">
@@ -5912,7 +5912,7 @@
         <v>-62.231327622467091</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="243"/>
       <c r="C16" s="49"/>
       <c r="D16" s="146">
@@ -6010,7 +6010,7 @@
         <v>-71.693003393182622</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="243"/>
       <c r="C17" s="49"/>
       <c r="D17" s="146">
@@ -6110,7 +6110,7 @@
         <v>17.889632484879769</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="243"/>
       <c r="C18" s="49"/>
       <c r="D18" s="146">
@@ -6210,7 +6210,7 @@
         <v>79.240573535294502</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="243"/>
       <c r="C19" s="49"/>
       <c r="D19" s="146">
@@ -6307,7 +6307,7 @@
         <v>-4.3278945647497364</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="243"/>
       <c r="C20" s="49"/>
       <c r="D20" s="146" t="str">
@@ -6372,7 +6372,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="243"/>
       <c r="C21" s="49"/>
       <c r="D21" s="146" t="str">
@@ -6449,7 +6449,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="243"/>
       <c r="C22" s="49"/>
       <c r="D22" s="146" t="str">
@@ -6526,7 +6526,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="243"/>
       <c r="C23" s="49"/>
       <c r="D23" s="146" t="str">
@@ -6603,7 +6603,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="243"/>
       <c r="C24" s="49"/>
       <c r="D24" s="146" t="str">
@@ -6680,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="243"/>
       <c r="C25" s="49"/>
       <c r="D25" s="146" t="str">
@@ -6757,7 +6757,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="243"/>
       <c r="C26" s="49"/>
       <c r="D26" s="146" t="str">
@@ -6834,7 +6834,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="243"/>
       <c r="C27" s="49"/>
       <c r="D27" s="146" t="str">
@@ -6911,7 +6911,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="243"/>
       <c r="C28" s="49"/>
       <c r="D28" s="146" t="str">
@@ -6988,7 +6988,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="243"/>
       <c r="C29" s="49"/>
       <c r="D29" s="146" t="str">
@@ -7065,7 +7065,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="243"/>
       <c r="C30" s="49"/>
       <c r="D30" s="146" t="str">
@@ -7142,7 +7142,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="243"/>
       <c r="C31" s="49"/>
       <c r="D31" s="146" t="str">
@@ -7219,7 +7219,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="243"/>
       <c r="C32" s="49"/>
       <c r="D32" s="146" t="str">
@@ -7296,7 +7296,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="243"/>
       <c r="C33" s="49"/>
       <c r="D33" s="146" t="str">
@@ -7373,7 +7373,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="243"/>
       <c r="C34" s="49"/>
       <c r="D34" s="146"/>
@@ -7447,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" s="243"/>
       <c r="C35" s="49"/>
       <c r="D35" s="146" t="str">
@@ -7524,7 +7524,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="243"/>
       <c r="C36" s="49"/>
       <c r="D36" s="146" t="str">
@@ -7601,7 +7601,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="243"/>
       <c r="C37" s="49"/>
       <c r="D37" s="146" t="str">
@@ -7678,7 +7678,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="243"/>
       <c r="C38" s="49"/>
       <c r="D38" s="146" t="str">
@@ -7755,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" s="243"/>
       <c r="C39" s="49"/>
       <c r="D39" s="146" t="str">
@@ -7832,7 +7832,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="243"/>
       <c r="C40" s="49"/>
       <c r="D40" s="146" t="str">
@@ -7909,7 +7909,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" s="243"/>
       <c r="C41" s="49"/>
       <c r="D41" s="146" t="str">
@@ -7986,7 +7986,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="243"/>
       <c r="C42" s="49"/>
       <c r="D42" s="146" t="str">
@@ -8063,7 +8063,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="243"/>
       <c r="C43" s="49"/>
       <c r="D43" s="146" t="str">
@@ -8140,7 +8140,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" s="243"/>
       <c r="C44" s="49"/>
       <c r="D44" s="146" t="str">
@@ -8217,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="243"/>
       <c r="C45" s="49"/>
       <c r="D45" s="146" t="str">
@@ -8294,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="243"/>
       <c r="C46" s="49"/>
       <c r="D46" s="146" t="str">
@@ -8371,7 +8371,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="243"/>
       <c r="C47" s="49"/>
       <c r="D47" s="146" t="str">
@@ -8448,7 +8448,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" s="243"/>
       <c r="C48" s="49"/>
       <c r="D48" s="146" t="str">
@@ -8525,7 +8525,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="243"/>
       <c r="C49" s="49"/>
       <c r="D49" s="146" t="str">
@@ -8602,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="243"/>
       <c r="C50" s="49"/>
       <c r="D50" s="146" t="str">
@@ -8679,7 +8679,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="243"/>
       <c r="C51" s="49"/>
       <c r="D51" s="146" t="str">
@@ -8756,7 +8756,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="243"/>
       <c r="C52" s="49"/>
       <c r="D52" s="146" t="str">
@@ -8833,7 +8833,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="243"/>
       <c r="C53" s="49"/>
       <c r="D53" s="146" t="str">
@@ -8910,7 +8910,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="243"/>
       <c r="C54" s="49"/>
       <c r="D54" s="146" t="str">
@@ -8987,7 +8987,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="243"/>
       <c r="C55" s="49"/>
       <c r="D55" s="146" t="str">
@@ -9064,7 +9064,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="243"/>
       <c r="C56" s="49"/>
       <c r="D56" s="146" t="str">
@@ -9141,7 +9141,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" s="243"/>
       <c r="C57" s="49"/>
       <c r="D57" s="146" t="str">
@@ -9218,7 +9218,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="243"/>
       <c r="C58" s="49"/>
       <c r="D58" s="146" t="str">
@@ -9295,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="243"/>
       <c r="C59" s="49"/>
       <c r="D59" s="146" t="str">
@@ -9372,7 +9372,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="243"/>
       <c r="C60" s="49"/>
       <c r="D60" s="146" t="str">
@@ -9449,7 +9449,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="243"/>
       <c r="C61" s="49"/>
       <c r="D61" s="146" t="str">
@@ -9526,7 +9526,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="243"/>
       <c r="C62" s="49"/>
       <c r="D62" s="146" t="str">
@@ -9603,7 +9603,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="243"/>
       <c r="C63" s="49"/>
       <c r="D63" s="146" t="str">
@@ -9680,7 +9680,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="243"/>
       <c r="C64" s="49"/>
       <c r="D64" s="146" t="str">
@@ -9757,7 +9757,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" s="243"/>
       <c r="C65" s="49"/>
       <c r="D65" s="146" t="str">
@@ -9834,7 +9834,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" s="243"/>
       <c r="C66" s="49"/>
       <c r="D66" s="146" t="str">
@@ -9911,7 +9911,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" s="243"/>
       <c r="C67" s="49"/>
       <c r="D67" s="146" t="str">
@@ -9988,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" s="243"/>
       <c r="C68" s="49"/>
       <c r="D68" s="146" t="str">
@@ -10065,7 +10065,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" s="243"/>
       <c r="C69" s="49"/>
       <c r="D69" s="146" t="str">
@@ -10142,7 +10142,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" s="243"/>
       <c r="C70" s="49"/>
       <c r="D70" s="146" t="str">
@@ -10219,7 +10219,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" s="243"/>
       <c r="C71" s="49"/>
       <c r="D71" s="146" t="str">
@@ -10296,7 +10296,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" s="243"/>
       <c r="C72" s="49"/>
       <c r="D72" s="146" t="str">
@@ -10373,7 +10373,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="243"/>
       <c r="C73" s="49"/>
       <c r="D73" s="146" t="str">
@@ -10450,7 +10450,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" s="243"/>
       <c r="C74" s="49"/>
       <c r="D74" s="146" t="str">
@@ -10527,7 +10527,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" s="243"/>
       <c r="C75" s="49"/>
       <c r="D75" s="146" t="str">
@@ -10604,7 +10604,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="243"/>
       <c r="C76" s="49"/>
       <c r="D76" s="147" t="str">
@@ -10769,118 +10769,118 @@
   </sheetPr>
   <dimension ref="B1:DG87"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E18" sqref="E18:W19"/>
+    <sheetView topLeftCell="A24" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z57" sqref="Z57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="58.54296875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="60.54296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="27.7265625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" style="21" customWidth="1"/>
-    <col min="12" max="15" width="12.7265625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="17.54296875" style="21" customWidth="1"/>
-    <col min="19" max="23" width="10.54296875" style="21" customWidth="1"/>
-    <col min="24" max="24" width="11.7265625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="29" width="10.54296875" style="21" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.90625" style="21" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" style="21" customWidth="1"/>
-    <col min="32" max="32" width="10.54296875" style="21" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="11.453125" style="21" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.26953125" style="21" hidden="1" customWidth="1"/>
-    <col min="35" max="39" width="9.1796875" style="21" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="10.453125" style="21" hidden="1" customWidth="1"/>
-    <col min="41" max="43" width="12.453125" style="21" customWidth="1"/>
-    <col min="44" max="44" width="10.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="21" customWidth="1"/>
+    <col min="12" max="15" width="12.7109375" style="21" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="21" customWidth="1"/>
+    <col min="19" max="23" width="10.5703125" style="21" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="10.5703125" style="21" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="21" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="21" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" style="21" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="21" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="21" hidden="1" customWidth="1"/>
+    <col min="35" max="39" width="9.140625" style="21" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" style="21" hidden="1" customWidth="1"/>
+    <col min="41" max="43" width="12.42578125" style="21" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="21" customWidth="1"/>
     <col min="45" max="45" width="12" style="21" customWidth="1"/>
-    <col min="46" max="16384" width="8.7265625" style="21"/>
+    <col min="46" max="16384" width="8.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:111" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:111" x14ac:dyDescent="0.35">
-      <c r="D2" s="260" t="s">
+    <row r="1" spans="2:111" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="D2" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="261"/>
+      <c r="E2" s="270"/>
     </row>
-    <row r="3" spans="2:111" x14ac:dyDescent="0.35">
-      <c r="D3" s="258" t="s">
+    <row r="3" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="D3" s="267" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="259"/>
+      <c r="E3" s="268"/>
     </row>
-    <row r="4" spans="2:111" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="273" t="s">
+    <row r="4" spans="2:111" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="282" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="274"/>
+      <c r="E4" s="283"/>
     </row>
-    <row r="5" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="262" t="s">
+    <row r="5" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="271" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="263"/>
+      <c r="E5" s="272"/>
     </row>
-    <row r="6" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:111" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="2:111" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:111" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="45"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="292" t="s">
+      <c r="F7" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="293"/>
-      <c r="P7" s="294"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="259"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="259"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="P7" s="260"/>
     </row>
-    <row r="8" spans="2:111" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:111" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="292" t="s">
+      <c r="F8" s="258" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="294"/>
+      <c r="G8" s="260"/>
       <c r="H8" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="292" t="s">
+      <c r="I8" s="258" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="293"/>
-      <c r="P8" s="294"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="260"/>
     </row>
-    <row r="9" spans="2:111" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:111" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="292" t="s">
+      <c r="F9" s="258" t="s">
         <v>222</v>
       </c>
-      <c r="G9" s="294"/>
+      <c r="G9" s="260"/>
       <c r="I9" s="244" t="s">
         <v>223</v>
       </c>
@@ -10892,48 +10892,48 @@
       <c r="O9" s="245"/>
       <c r="P9" s="246"/>
     </row>
-    <row r="10" spans="2:111" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="275" t="s">
+    <row r="10" spans="2:111" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="284" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="276"/>
+      <c r="G10" s="285"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="283" t="s">
+      <c r="I10" s="292" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="284"/>
-      <c r="K10" s="284"/>
-      <c r="L10" s="285"/>
+      <c r="J10" s="293"/>
+      <c r="K10" s="293"/>
+      <c r="L10" s="294"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="2:111" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="266"/>
+    <row r="11" spans="2:111" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="275"/>
       <c r="C11" s="96"/>
-      <c r="F11" s="277" t="s">
+      <c r="F11" s="286" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="278"/>
+      <c r="G11" s="287"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="271" t="s">
+      <c r="I11" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="279"/>
-      <c r="K11" s="272" t="s">
+      <c r="J11" s="288"/>
+      <c r="K11" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="279"/>
+      <c r="L11" s="288"/>
       <c r="M11" s="37"/>
-      <c r="N11" s="267" t="s">
+      <c r="N11" s="276" t="s">
         <v>230</v>
       </c>
-      <c r="O11" s="268"/>
+      <c r="O11" s="277"/>
       <c r="DG11" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:111" ht="76.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="266"/>
+    <row r="12" spans="2:111" ht="76.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="275"/>
       <c r="F12" s="86" t="s">
         <v>226</v>
       </c>
@@ -10941,14 +10941,14 @@
       <c r="H12" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="282" t="s">
+      <c r="I12" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="281"/>
-      <c r="K12" s="280" t="s">
+      <c r="J12" s="290"/>
+      <c r="K12" s="289" t="s">
         <v>215</v>
       </c>
-      <c r="L12" s="281"/>
+      <c r="L12" s="290"/>
       <c r="M12" s="37"/>
       <c r="N12" s="87" t="s">
         <v>194</v>
@@ -10961,8 +10961,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:111" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="266"/>
+    <row r="13" spans="2:111" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="275"/>
       <c r="C13" s="96"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -10982,8 +10982,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:111" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="266"/>
+    <row r="14" spans="2:111" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="275"/>
       <c r="C14" s="96"/>
       <c r="F14" s="91" t="s">
         <v>227</v>
@@ -10994,22 +10994,22 @@
       <c r="H14" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="271" t="s">
+      <c r="I14" s="280" t="s">
         <v>229</v>
       </c>
-      <c r="J14" s="272"/>
-      <c r="K14" s="269" t="s">
+      <c r="J14" s="281"/>
+      <c r="K14" s="278" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="270"/>
-      <c r="M14" s="264" t="str">
+      <c r="L14" s="279"/>
+      <c r="M14" s="273" t="str">
         <f>IF(K14=DG11,"","Forecast selection is incompatible with baseline years other than eGRID ones")</f>
         <v>Forecast selection is incompatible with baseline years other than eGRID ones</v>
       </c>
-      <c r="N14" s="265"/>
+      <c r="N14" s="274"/>
     </row>
-    <row r="15" spans="2:111" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="266"/>
+    <row r="15" spans="2:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="275"/>
       <c r="C15" s="94"/>
       <c r="F15" s="37"/>
       <c r="G15" s="92"/>
@@ -11022,8 +11022,8 @@
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
     </row>
-    <row r="16" spans="2:111" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="266"/>
+    <row r="16" spans="2:111" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="275"/>
       <c r="C16" s="94"/>
       <c r="F16" s="37"/>
       <c r="G16" s="92"/>
@@ -11041,8 +11041,8 @@
       <c r="P16" s="37"/>
       <c r="AD16" s="203"/>
     </row>
-    <row r="17" spans="2:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="266"/>
+    <row r="17" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="275"/>
       <c r="C17" s="94"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -11057,7 +11057,7 @@
       <c r="P17" s="37"/>
       <c r="AD17" s="203"/>
     </row>
-    <row r="18" spans="2:45" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:45" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="244" t="s">
         <v>218</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="W18" s="246"/>
       <c r="AE18" s="40"/>
     </row>
-    <row r="19" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="247"/>
       <c r="F19" s="248"/>
       <c r="G19" s="248"/>
@@ -11103,7 +11103,7 @@
       <c r="W19" s="249"/>
       <c r="AE19" s="40"/>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E20" s="250" t="s">
         <v>131</v>
       </c>
@@ -11132,14 +11132,14 @@
       <c r="R20" s="252"/>
       <c r="S20" s="252"/>
       <c r="T20" s="253"/>
-      <c r="U20" s="286" t="s">
+      <c r="U20" s="261" t="s">
         <v>233</v>
       </c>
-      <c r="V20" s="287"/>
-      <c r="W20" s="288"/>
+      <c r="V20" s="262"/>
+      <c r="W20" s="263"/>
       <c r="AE20" s="41"/>
     </row>
-    <row r="21" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="251"/>
       <c r="F21" s="255"/>
       <c r="G21" s="251"/>
@@ -11156,12 +11156,12 @@
       <c r="R21" s="254"/>
       <c r="S21" s="254"/>
       <c r="T21" s="255"/>
-      <c r="U21" s="289"/>
-      <c r="V21" s="290"/>
-      <c r="W21" s="291"/>
+      <c r="U21" s="264"/>
+      <c r="V21" s="265"/>
+      <c r="W21" s="266"/>
       <c r="AE21" s="41"/>
     </row>
-    <row r="22" spans="2:45" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:45" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="192" t="s">
         <v>13</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:45" s="26" customFormat="1" ht="51.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:45" s="26" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
       <c r="F23" s="208" t="s">
@@ -11389,7 +11389,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="2:45" s="25" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:45" s="25" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
       <c r="F24" s="210"/>
@@ -11491,7 +11491,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B25" s="243"/>
       <c r="C25" s="49"/>
       <c r="D25" s="149">
@@ -11575,23 +11575,23 @@
       </c>
       <c r="X25" s="202">
         <f>IF(G25='Emission Factors'!$B$3,AB25,IF(G25='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(G25='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(G25='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(G25='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(G25='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(G25='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(G25='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(G25='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(G25='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(G25='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(G25='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="Y25" s="204">
         <f>IF(H25='Emission Factors'!$B$3,AB25,IF(H25='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(H25='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(H25='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(H25='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(H25='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(H25='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(H25='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(H25='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(H25='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(H25='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(H25='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL25/T25,IF($I$12="AK",'Grid Emissions'!C4*0.000001,IF($I$12="DC",'Grid Emissions'!C11*0.000001,IF($I$12="HI",'Grid Emissions'!C15*0.000001,IF($I$12="PR",'Grid Emissions'!C43*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T25,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL25/T25,IF($I$12="AK",'Grid Emissions'!C4*0.000001,IF($I$12="DC",'Grid Emissions'!C11*0.000001,IF($I$12="HI",'Grid Emissions'!C15*0.000001,IF($I$12="PR",'Grid Emissions'!C43*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T25,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AA25" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C4*0.000001,IF($I$12="DC",'Grid Emissions'!C11*0.000001,IF($I$12="HI",'Grid Emissions'!C15*0.000001,IF($I$12="PR",'Grid Emissions'!C43*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T25,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>1.3394907259206752E-4</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C4*0.000001,IF($I$12="DC",'Grid Emissions'!C11*0.000001,IF($I$12="HI",'Grid Emissions'!C15*0.000001,IF($I$12="PR",'Grid Emissions'!C43*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T25,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>6.7311091754807792E-5</v>
       </c>
       <c r="AB25" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z25,IF($K$14=$DG$13,AA25,Z25)))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AC25" s="205">
         <f>IF(I25='Emission Factors'!$B$3,AB25,IF(I25='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I25='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I25='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I25='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I25='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I25='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I25='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I25='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I25='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I25='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I25='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="AE25" s="228">
         <f t="shared" ref="AE25:AE56" si="2">IF(OR(K25&lt;&gt;"",J25&lt;&gt;""),((IF(K25&lt;&gt;"",(K25*X25),0))+(IF(J25&lt;&gt;"",(J25*AB25),0))+(IF(L25&lt;&gt;"",(L25*Y25),0))-(IF(AND(G25&lt;&gt;"",I25&lt;&gt;""),(AC25*M25),0))),"")</f>
-        <v>6.8087611940509687</v>
+        <v>3.4214880372115419</v>
       </c>
       <c r="AF25" s="229">
         <f t="shared" ref="AF25:AF56" si="3">IF(AND($I$16&lt;&gt;"",AE25&lt;&gt;""),(AE25*$I$16),0)</f>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="AO25" s="234">
         <f>IF(AND(AE25&lt;&gt;"",AE25&gt;0),AD25/AE25,"")</f>
-        <v>-250.4241511244941</v>
+        <v>-498.34406073774323</v>
       </c>
       <c r="AP25" s="199">
         <f>IF('Inputs for Conserved Energy'!AB14&lt;&gt;"",'Inputs for Conserved Energy'!AB14,(IF(OR(J25&lt;&gt;"",K25&lt;&gt;"",L25&lt;&gt;"",M25&lt;&gt;""),((J25*0.00341214)+K25+L25-IF(I25="Electricity",M25*0.00341214,M25)),"")))</f>
@@ -11662,7 +11662,7 @@
         <v>-38.751778232491148</v>
       </c>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B26" s="243"/>
       <c r="C26" s="49"/>
       <c r="D26" s="146">
@@ -11753,16 +11753,16 @@
         <v>0</v>
       </c>
       <c r="Z26" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL26/T26,IF($I$12="AK",'Grid Emissions'!C5*0.000001,IF($I$12="DC",'Grid Emissions'!C12*0.000001,IF($I$12="HI",'Grid Emissions'!C16*0.000001,IF($I$12="PR",'Grid Emissions'!C44*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T26,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.0295373629603373E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL26/T26,IF($I$12="AK",'Grid Emissions'!C5*0.000001,IF($I$12="DC",'Grid Emissions'!C12*0.000001,IF($I$12="HI",'Grid Emissions'!C16*0.000001,IF($I$12="PR",'Grid Emissions'!C44*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T26,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AA26" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C5*0.000001,IF($I$12="DC",'Grid Emissions'!C12*0.000001,IF($I$12="HI",'Grid Emissions'!C16*0.000001,IF($I$12="PR",'Grid Emissions'!C44*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T26,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>8.4670611296033731E-5</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C5*0.000001,IF($I$12="DC",'Grid Emissions'!C12*0.000001,IF($I$12="HI",'Grid Emissions'!C16*0.000001,IF($I$12="PR",'Grid Emissions'!C44*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T26,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>4.2548045877403886E-5</v>
       </c>
       <c r="AB26" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z26,IF($K$14=$DG$13,AA26,Z26)))</f>
-        <v>1.0295373629603373E-4</v>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AC26" s="205">
         <f>IF(I26='Emission Factors'!$B$3,AB26,IF(I26='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I26='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I26='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I26='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I26='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I26='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I26='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I26='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I26='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I26='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I26='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
@@ -11833,7 +11833,7 @@
         <v>-62.231327622467091</v>
       </c>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B27" s="243"/>
       <c r="C27" s="49"/>
       <c r="D27" s="146">
@@ -11917,23 +11917,23 @@
       </c>
       <c r="X27" s="202">
         <f>IF(G27='Emission Factors'!$B$3,AB27,IF(G27='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(G27='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(G27='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(G27='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(G27='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(G27='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(G27='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(G27='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(G27='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(G27='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(G27='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
-        <v>1.0295373629603373E-4</v>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="Y27" s="204">
         <f>IF(H27='Emission Factors'!$B$3,AB27,IF(H27='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(H27='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(H27='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(H27='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(H27='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(H27='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(H27='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(H27='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(H27='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(H27='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(H27='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>5.2902494331065759E-2</v>
       </c>
       <c r="Z27" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL27/T27,IF($I$12="AK",'Grid Emissions'!C6*0.000001,IF($I$12="DC",'Grid Emissions'!C13*0.000001,IF($I$12="HI",'Grid Emissions'!C17*0.000001,IF($I$12="PR",'Grid Emissions'!C45*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T27,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.0295373629603373E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL27/T27,IF($I$12="AK",'Grid Emissions'!C6*0.000001,IF($I$12="DC",'Grid Emissions'!C13*0.000001,IF($I$12="HI",'Grid Emissions'!C17*0.000001,IF($I$12="PR",'Grid Emissions'!C45*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T27,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AA27" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C6*0.000001,IF($I$12="DC",'Grid Emissions'!C13*0.000001,IF($I$12="HI",'Grid Emissions'!C17*0.000001,IF($I$12="PR",'Grid Emissions'!C45*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T27,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>8.4670611296033731E-5</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C6*0.000001,IF($I$12="DC",'Grid Emissions'!C13*0.000001,IF($I$12="HI",'Grid Emissions'!C17*0.000001,IF($I$12="PR",'Grid Emissions'!C45*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T27,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>4.2548045877403886E-5</v>
       </c>
       <c r="AB27" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z27,IF($K$14=$DG$13,AA27,Z27)))</f>
-        <v>1.0295373629603373E-4</v>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AC27" s="205">
         <f>IF(I27='Emission Factors'!$B$3,AB27,IF(I27='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I27='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I27='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I27='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I27='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I27='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I27='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I27='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I27='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I27='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I27='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="AE27" s="221">
         <f t="shared" si="2"/>
-        <v>17.034911825719689</v>
+        <v>15.139838780230384</v>
       </c>
       <c r="AF27" s="222">
         <f t="shared" si="3"/>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="AO27" s="235">
         <f t="shared" si="12"/>
-        <v>-464.07225511965135</v>
+        <v>-522.16077472694565</v>
       </c>
       <c r="AP27" s="182">
         <f>IF('Inputs for Conserved Energy'!AB16&lt;&gt;"",'Inputs for Conserved Energy'!AB16,(IF(OR(J27&lt;&gt;"",K27&lt;&gt;"",L27&lt;&gt;"",M27&lt;&gt;""),((J27*0.00341214)+K27+L27-IF(I27="Electricity",M27*0.00341214,M27)),"")))</f>
@@ -12004,7 +12004,7 @@
         <v>-71.693003393182622</v>
       </c>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B28" s="243"/>
       <c r="C28" s="49"/>
       <c r="D28" s="146">
@@ -12094,20 +12094,20 @@
         <v>0</v>
       </c>
       <c r="Z28" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL28/T28,IF($I$12="AK",'Grid Emissions'!C7*0.000001,IF($I$12="DC",'Grid Emissions'!C14*0.000001,IF($I$12="HI",'Grid Emissions'!C18*0.000001,IF($I$12="PR",'Grid Emissions'!C46*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T28,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.0295373629603373E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL28/T28,IF($I$12="AK",'Grid Emissions'!C7*0.000001,IF($I$12="DC",'Grid Emissions'!C14*0.000001,IF($I$12="HI",'Grid Emissions'!C18*0.000001,IF($I$12="PR",'Grid Emissions'!C46*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T28,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AA28" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C7*0.000001,IF($I$12="DC",'Grid Emissions'!C14*0.000001,IF($I$12="HI",'Grid Emissions'!C18*0.000001,IF($I$12="PR",'Grid Emissions'!C46*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T28,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>8.4670611296033731E-5</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C7*0.000001,IF($I$12="DC",'Grid Emissions'!C14*0.000001,IF($I$12="HI",'Grid Emissions'!C18*0.000001,IF($I$12="PR",'Grid Emissions'!C46*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T28,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>4.2548045877403886E-5</v>
       </c>
       <c r="AB28" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z28,IF($K$14=$DG$13,AA28,Z28)))</f>
-        <v>1.0295373629603373E-4</v>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AC28" s="205">
         <f>IF(I28='Emission Factors'!$B$3,AB28,IF(I28='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I28='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I28='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I28='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I28='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I28='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I28='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I28='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I28='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I28='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I28='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
-        <v>1.0295373629603373E-4</v>
+        <v>5.1735545877403886E-5</v>
       </c>
       <c r="AD28" s="223">
         <f t="shared" si="1"/>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="AE28" s="221">
         <f t="shared" si="2"/>
-        <v>119.94139635414919</v>
+        <v>128.69970691573491</v>
       </c>
       <c r="AF28" s="222">
         <f t="shared" si="3"/>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="AO28" s="235">
         <f t="shared" si="12"/>
-        <v>88.147273651356159</v>
+        <v>82.148649285403764</v>
       </c>
       <c r="AP28" s="182">
         <f>IF('Inputs for Conserved Energy'!AB17&lt;&gt;"",'Inputs for Conserved Energy'!AB17,(IF(OR(J28&lt;&gt;"",K28&lt;&gt;"",L28&lt;&gt;"",M28&lt;&gt;""),((J28*0.00341214)+K28+L28-IF(I28="Electricity",M28*0.00341214,M28)),"")))</f>
@@ -12174,7 +12174,7 @@
         <v>17.889632484879769</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B29" s="243"/>
       <c r="C29" s="49"/>
       <c r="D29" s="146">
@@ -12264,20 +12264,20 @@
         <v>0</v>
       </c>
       <c r="Z29" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL29/T29,IF($I$12="AK",'Grid Emissions'!C8*0.000001,IF($I$12="DC",'Grid Emissions'!C15*0.000001,IF($I$12="HI",'Grid Emissions'!C19*0.000001,IF($I$12="PR",'Grid Emissions'!C47*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T29,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL29/T29,IF($I$12="AK",'Grid Emissions'!C8*0.000001,IF($I$12="DC",'Grid Emissions'!C15*0.000001,IF($I$12="HI",'Grid Emissions'!C19*0.000001,IF($I$12="PR",'Grid Emissions'!C47*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T29,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AA29" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C8*0.000001,IF($I$12="DC",'Grid Emissions'!C15*0.000001,IF($I$12="HI",'Grid Emissions'!C19*0.000001,IF($I$12="PR",'Grid Emissions'!C47*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T29,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>1.3394907259206752E-4</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C8*0.000001,IF($I$12="DC",'Grid Emissions'!C15*0.000001,IF($I$12="HI",'Grid Emissions'!C19*0.000001,IF($I$12="PR",'Grid Emissions'!C47*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T29,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>6.7311091754807792E-5</v>
       </c>
       <c r="AB29" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z29,IF($K$14=$DG$13,AA29,Z29)))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AC29" s="205">
         <f>IF(I29='Emission Factors'!$B$3,AB29,IF(I29='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I29='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I29='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I29='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I29='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I29='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I29='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I29='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I29='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I29='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I29='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AD29" s="223">
         <f t="shared" si="1"/>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="AE29" s="221">
         <f t="shared" si="2"/>
-        <v>76.86775358741491</v>
+        <v>91.263664503982469</v>
       </c>
       <c r="AF29" s="222">
         <f t="shared" si="3"/>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="AO29" s="235">
         <f t="shared" si="12"/>
-        <v>411.46349251977398</v>
+        <v>346.55932922622191</v>
       </c>
       <c r="AP29" s="182">
         <f>IF('Inputs for Conserved Energy'!AB18&lt;&gt;"",'Inputs for Conserved Energy'!AB18,(IF(OR(J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29&lt;&gt;""),((J29*0.00341214)+K29+L29-IF(I29="Electricity",M29*0.00341214,M29)),"")))</f>
@@ -12344,7 +12344,7 @@
         <v>79.240573535294502</v>
       </c>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B30" s="243"/>
       <c r="C30" s="49"/>
       <c r="D30" s="146">
@@ -12428,23 +12428,23 @@
       </c>
       <c r="X30" s="202">
         <f>IF(G30='Emission Factors'!$B$3,AB30,IF(G30='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(G30='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(G30='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(G30='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(G30='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(G30='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(G30='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(G30='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(G30='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(G30='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(G30='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="Y30" s="204">
         <f>IF(H30='Emission Factors'!$B$3,AB30,IF(H30='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(H30='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(H30='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(H30='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(H30='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(H30='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(H30='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(H30='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(H30='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(H30='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(H30='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z30" s="204">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL30/T30,IF($I$12="AK",'Grid Emissions'!C9*0.000001,IF($I$12="DC",'Grid Emissions'!C16*0.000001,IF($I$12="HI",'Grid Emissions'!C20*0.000001,IF($I$12="PR",'Grid Emissions'!C48*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T30,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
-        <v>1.5474457259206746E-4</v>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL30/T30,IF($I$12="AK",'Grid Emissions'!C9*0.000001,IF($I$12="DC",'Grid Emissions'!C16*0.000001,IF($I$12="HI",'Grid Emissions'!C20*0.000001,IF($I$12="PR",'Grid Emissions'!C48*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T30,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AA30" s="204">
-        <f>IF($I$12="AK",'Grid Emissions'!C9*0.000001,IF($I$12="DC",'Grid Emissions'!C16*0.000001,IF($I$12="HI",'Grid Emissions'!C20*0.000001,IF($I$12="PR",'Grid Emissions'!C48*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T30,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
-        <v>1.3394907259206752E-4</v>
+        <f>IF($I$12="AK",'Grid Emissions'!C9*0.000001,IF($I$12="DC",'Grid Emissions'!C16*0.000001,IF($I$12="HI",'Grid Emissions'!C20*0.000001,IF($I$12="PR",'Grid Emissions'!C48*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T30,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
+        <v>6.7311091754807792E-5</v>
       </c>
       <c r="AB30" s="204">
         <f>IF($K$14=$DG$11,'Emission Factors'!$C$3,IF($K$14=$DG$12,Z30,IF($K$14=$DG$13,AA30,Z30)))</f>
-        <v>1.5474457259206746E-4</v>
+        <v>7.7761091754807775E-5</v>
       </c>
       <c r="AC30" s="205">
         <f>IF(I30='Emission Factors'!$B$3,AB30,IF(I30='Emission Factors'!$B$4,'Emission Factors'!$C$4,IF(I30='Emission Factors'!$B$5,'Emission Factors'!$C$5,IF(I30='Emission Factors'!$B$6,'Emission Factors'!$C$6,IF(I30='Emission Factors'!$B$7,'Emission Factors'!$C$7,IF(I30='Emission Factors'!$B$8,'Emission Factors'!$C$8,IF(I30='Emission Factors'!$B$9,'Emission Factors'!$C$9,IF(I30='Emission Factors'!$B$10,'Emission Factors'!$C$10,IF(I30='Emission Factors'!$B$11,'Emission Factors'!$C$11,IF(I30='Emission Factors'!$B$12,'Emission Factors'!$C$12,IF(I30='Emission Factors'!$B$13,'Emission Factors'!$C$13,IF(I30='Emission Factors'!$B$14,'Emission Factors'!$C$14,0))))))))))))</f>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="AE30" s="221">
         <f>IF(OR(K30&lt;&gt;"",J30&lt;&gt;""),((IF(K30&lt;&gt;"",(K30*X30),0))+(IF(J30&lt;&gt;"",(J30*AB30),0))+(IF(L30&lt;&gt;"",(L30*Y30),0))-(IF(AND(G30&lt;&gt;"",I30&lt;&gt;""),(AC30*M30),0))),"")</f>
-        <v>8.4181047490084708</v>
+        <v>4.2302033914615427</v>
       </c>
       <c r="AF30" s="222">
         <f t="shared" si="3"/>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="AO30" s="235">
         <f t="shared" si="12"/>
-        <v>-388.34936507236915</v>
+        <v>-772.8152364940147</v>
       </c>
       <c r="AP30" s="182">
         <f>IF('Inputs for Conserved Energy'!AB19&lt;&gt;"",'Inputs for Conserved Energy'!AB19,(IF(OR(J30&lt;&gt;"",K30&lt;&gt;"",L30&lt;&gt;"",M30&lt;&gt;""),((J30*0.00341214)+K30+L30-IF(I30="Electricity",M30*0.00341214,M30)),"")))</f>
@@ -12515,7 +12515,7 @@
         <v>-4.3278945647497364</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B31" s="243"/>
       <c r="C31" s="49"/>
       <c r="D31" s="146" t="str">
@@ -12604,11 +12604,11 @@
         <v>0</v>
       </c>
       <c r="Z31" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL31/T31,IF($I$12="AK",'Grid Emissions'!C10*0.000001,IF($I$12="DC",'Grid Emissions'!C17*0.000001,IF($I$12="HI",'Grid Emissions'!C21*0.000001,IF($I$12="PR",'Grid Emissions'!C49*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T31,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL31/T31,IF($I$12="AK",'Grid Emissions'!C10*0.000001,IF($I$12="DC",'Grid Emissions'!C17*0.000001,IF($I$12="HI",'Grid Emissions'!C21*0.000001,IF($I$12="PR",'Grid Emissions'!C49*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T31,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA31" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C10*0.000001,IF($I$12="DC",'Grid Emissions'!C17*0.000001,IF($I$12="HI",'Grid Emissions'!C21*0.000001,IF($I$12="PR",'Grid Emissions'!C49*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T31,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C10*0.000001,IF($I$12="DC",'Grid Emissions'!C17*0.000001,IF($I$12="HI",'Grid Emissions'!C21*0.000001,IF($I$12="PR",'Grid Emissions'!C49*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T31,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB31" s="204" t="e">
@@ -12684,7 +12684,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B32" s="243"/>
       <c r="C32" s="49"/>
       <c r="D32" s="146" t="str">
@@ -12773,11 +12773,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL32/T32,IF($I$12="AK",'Grid Emissions'!C11*0.000001,IF($I$12="DC",'Grid Emissions'!C18*0.000001,IF($I$12="HI",'Grid Emissions'!C22*0.000001,IF($I$12="PR",'Grid Emissions'!C50*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T32,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL32/T32,IF($I$12="AK",'Grid Emissions'!C11*0.000001,IF($I$12="DC",'Grid Emissions'!C18*0.000001,IF($I$12="HI",'Grid Emissions'!C22*0.000001,IF($I$12="PR",'Grid Emissions'!C50*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T32,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA32" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C11*0.000001,IF($I$12="DC",'Grid Emissions'!C18*0.000001,IF($I$12="HI",'Grid Emissions'!C22*0.000001,IF($I$12="PR",'Grid Emissions'!C50*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T32,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C11*0.000001,IF($I$12="DC",'Grid Emissions'!C18*0.000001,IF($I$12="HI",'Grid Emissions'!C22*0.000001,IF($I$12="PR",'Grid Emissions'!C50*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T32,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB32" s="204" t="e">
@@ -12853,7 +12853,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B33" s="243"/>
       <c r="C33" s="49"/>
       <c r="D33" s="146" t="str">
@@ -12942,11 +12942,11 @@
         <v>0</v>
       </c>
       <c r="Z33" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL33/T33,IF($I$12="AK",'Grid Emissions'!C12*0.000001,IF($I$12="DC",'Grid Emissions'!C19*0.000001,IF($I$12="HI",'Grid Emissions'!C23*0.000001,IF($I$12="PR",'Grid Emissions'!C51*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T33,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL33/T33,IF($I$12="AK",'Grid Emissions'!C12*0.000001,IF($I$12="DC",'Grid Emissions'!C19*0.000001,IF($I$12="HI",'Grid Emissions'!C23*0.000001,IF($I$12="PR",'Grid Emissions'!C51*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T33,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA33" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C12*0.000001,IF($I$12="DC",'Grid Emissions'!C19*0.000001,IF($I$12="HI",'Grid Emissions'!C23*0.000001,IF($I$12="PR",'Grid Emissions'!C51*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T33,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C12*0.000001,IF($I$12="DC",'Grid Emissions'!C19*0.000001,IF($I$12="HI",'Grid Emissions'!C23*0.000001,IF($I$12="PR",'Grid Emissions'!C51*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T33,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB33" s="204" t="e">
@@ -13022,7 +13022,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B34" s="243"/>
       <c r="C34" s="49"/>
       <c r="D34" s="146" t="str">
@@ -13111,11 +13111,11 @@
         <v>0</v>
       </c>
       <c r="Z34" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL34/T34,IF($I$12="AK",'Grid Emissions'!C13*0.000001,IF($I$12="DC",'Grid Emissions'!C20*0.000001,IF($I$12="HI",'Grid Emissions'!C24*0.000001,IF($I$12="PR",'Grid Emissions'!C52*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T34,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL34/T34,IF($I$12="AK",'Grid Emissions'!C13*0.000001,IF($I$12="DC",'Grid Emissions'!C20*0.000001,IF($I$12="HI",'Grid Emissions'!C24*0.000001,IF($I$12="PR",'Grid Emissions'!C52*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T34,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA34" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C13*0.000001,IF($I$12="DC",'Grid Emissions'!C20*0.000001,IF($I$12="HI",'Grid Emissions'!C24*0.000001,IF($I$12="PR",'Grid Emissions'!C52*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T34,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C13*0.000001,IF($I$12="DC",'Grid Emissions'!C20*0.000001,IF($I$12="HI",'Grid Emissions'!C24*0.000001,IF($I$12="PR",'Grid Emissions'!C52*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T34,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB34" s="204" t="e">
@@ -13191,7 +13191,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B35" s="243"/>
       <c r="C35" s="49"/>
       <c r="D35" s="146" t="str">
@@ -13280,11 +13280,11 @@
         <v>0</v>
       </c>
       <c r="Z35" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL35/T35,IF($I$12="AK",'Grid Emissions'!C14*0.000001,IF($I$12="DC",'Grid Emissions'!C21*0.000001,IF($I$12="HI",'Grid Emissions'!C25*0.000001,IF($I$12="PR",'Grid Emissions'!C53*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T35,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL35/T35,IF($I$12="AK",'Grid Emissions'!C14*0.000001,IF($I$12="DC",'Grid Emissions'!C21*0.000001,IF($I$12="HI",'Grid Emissions'!C25*0.000001,IF($I$12="PR",'Grid Emissions'!C53*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T35,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA35" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C14*0.000001,IF($I$12="DC",'Grid Emissions'!C21*0.000001,IF($I$12="HI",'Grid Emissions'!C25*0.000001,IF($I$12="PR",'Grid Emissions'!C53*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T35,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C14*0.000001,IF($I$12="DC",'Grid Emissions'!C21*0.000001,IF($I$12="HI",'Grid Emissions'!C25*0.000001,IF($I$12="PR",'Grid Emissions'!C53*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T35,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB35" s="204" t="e">
@@ -13360,7 +13360,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B36" s="243"/>
       <c r="C36" s="49"/>
       <c r="D36" s="146" t="str">
@@ -13449,11 +13449,11 @@
         <v>0</v>
       </c>
       <c r="Z36" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL36/T36,IF($I$12="AK",'Grid Emissions'!C15*0.000001,IF($I$12="DC",'Grid Emissions'!C22*0.000001,IF($I$12="HI",'Grid Emissions'!C26*0.000001,IF($I$12="PR",'Grid Emissions'!C54*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T36,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL36/T36,IF($I$12="AK",'Grid Emissions'!C15*0.000001,IF($I$12="DC",'Grid Emissions'!C22*0.000001,IF($I$12="HI",'Grid Emissions'!C26*0.000001,IF($I$12="PR",'Grid Emissions'!C54*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T36,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA36" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C15*0.000001,IF($I$12="DC",'Grid Emissions'!C22*0.000001,IF($I$12="HI",'Grid Emissions'!C26*0.000001,IF($I$12="PR",'Grid Emissions'!C54*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T36,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C15*0.000001,IF($I$12="DC",'Grid Emissions'!C22*0.000001,IF($I$12="HI",'Grid Emissions'!C26*0.000001,IF($I$12="PR",'Grid Emissions'!C54*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T36,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB36" s="204" t="e">
@@ -13529,7 +13529,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B37" s="243"/>
       <c r="C37" s="49"/>
       <c r="D37" s="146" t="str">
@@ -13618,11 +13618,11 @@
         <v>0</v>
       </c>
       <c r="Z37" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL37/T37,IF($I$12="AK",'Grid Emissions'!C16*0.000001,IF($I$12="DC",'Grid Emissions'!C23*0.000001,IF($I$12="HI",'Grid Emissions'!C27*0.000001,IF($I$12="PR",'Grid Emissions'!C55*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T37,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL37/T37,IF($I$12="AK",'Grid Emissions'!C16*0.000001,IF($I$12="DC",'Grid Emissions'!C23*0.000001,IF($I$12="HI",'Grid Emissions'!C27*0.000001,IF($I$12="PR",'Grid Emissions'!C55*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T37,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA37" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C16*0.000001,IF($I$12="DC",'Grid Emissions'!C23*0.000001,IF($I$12="HI",'Grid Emissions'!C27*0.000001,IF($I$12="PR",'Grid Emissions'!C55*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T37,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C16*0.000001,IF($I$12="DC",'Grid Emissions'!C23*0.000001,IF($I$12="HI",'Grid Emissions'!C27*0.000001,IF($I$12="PR",'Grid Emissions'!C55*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T37,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB37" s="204" t="e">
@@ -13698,7 +13698,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B38" s="243"/>
       <c r="C38" s="49"/>
       <c r="D38" s="146" t="str">
@@ -13787,11 +13787,11 @@
         <v>0</v>
       </c>
       <c r="Z38" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL38/T38,IF($I$12="AK",'Grid Emissions'!C17*0.000001,IF($I$12="DC",'Grid Emissions'!C24*0.000001,IF($I$12="HI",'Grid Emissions'!C28*0.000001,IF($I$12="PR",'Grid Emissions'!C56*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T38,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL38/T38,IF($I$12="AK",'Grid Emissions'!C17*0.000001,IF($I$12="DC",'Grid Emissions'!C24*0.000001,IF($I$12="HI",'Grid Emissions'!C28*0.000001,IF($I$12="PR",'Grid Emissions'!C56*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T38,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA38" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C17*0.000001,IF($I$12="DC",'Grid Emissions'!C24*0.000001,IF($I$12="HI",'Grid Emissions'!C28*0.000001,IF($I$12="PR",'Grid Emissions'!C56*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T38,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C17*0.000001,IF($I$12="DC",'Grid Emissions'!C24*0.000001,IF($I$12="HI",'Grid Emissions'!C28*0.000001,IF($I$12="PR",'Grid Emissions'!C56*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T38,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB38" s="204" t="e">
@@ -13867,7 +13867,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B39" s="243"/>
       <c r="C39" s="49"/>
       <c r="D39" s="146" t="str">
@@ -13956,11 +13956,11 @@
         <v>0</v>
       </c>
       <c r="Z39" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL39/T39,IF($I$12="AK",'Grid Emissions'!C18*0.000001,IF($I$12="DC",'Grid Emissions'!C25*0.000001,IF($I$12="HI",'Grid Emissions'!C29*0.000001,IF($I$12="PR",'Grid Emissions'!C57*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T39,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL39/T39,IF($I$12="AK",'Grid Emissions'!C18*0.000001,IF($I$12="DC",'Grid Emissions'!C25*0.000001,IF($I$12="HI",'Grid Emissions'!C29*0.000001,IF($I$12="PR",'Grid Emissions'!C57*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T39,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA39" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C18*0.000001,IF($I$12="DC",'Grid Emissions'!C25*0.000001,IF($I$12="HI",'Grid Emissions'!C29*0.000001,IF($I$12="PR",'Grid Emissions'!C57*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T39,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C18*0.000001,IF($I$12="DC",'Grid Emissions'!C25*0.000001,IF($I$12="HI",'Grid Emissions'!C29*0.000001,IF($I$12="PR",'Grid Emissions'!C57*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T39,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB39" s="204" t="e">
@@ -14036,7 +14036,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B40" s="243"/>
       <c r="C40" s="49"/>
       <c r="D40" s="146" t="str">
@@ -14125,11 +14125,11 @@
         <v>0</v>
       </c>
       <c r="Z40" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL40/T40,IF($I$12="AK",'Grid Emissions'!C19*0.000001,IF($I$12="DC",'Grid Emissions'!C26*0.000001,IF($I$12="HI",'Grid Emissions'!C30*0.000001,IF($I$12="PR",'Grid Emissions'!C58*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T40,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL40/T40,IF($I$12="AK",'Grid Emissions'!C19*0.000001,IF($I$12="DC",'Grid Emissions'!C26*0.000001,IF($I$12="HI",'Grid Emissions'!C30*0.000001,IF($I$12="PR",'Grid Emissions'!C58*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T40,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C19*0.000001,IF($I$12="DC",'Grid Emissions'!C26*0.000001,IF($I$12="HI",'Grid Emissions'!C30*0.000001,IF($I$12="PR",'Grid Emissions'!C58*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T40,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C19*0.000001,IF($I$12="DC",'Grid Emissions'!C26*0.000001,IF($I$12="HI",'Grid Emissions'!C30*0.000001,IF($I$12="PR",'Grid Emissions'!C58*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T40,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB40" s="204" t="e">
@@ -14205,7 +14205,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B41" s="243"/>
       <c r="C41" s="49"/>
       <c r="D41" s="146" t="str">
@@ -14294,11 +14294,11 @@
         <v>0</v>
       </c>
       <c r="Z41" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL41/T41,IF($I$12="AK",'Grid Emissions'!C20*0.000001,IF($I$12="DC",'Grid Emissions'!C27*0.000001,IF($I$12="HI",'Grid Emissions'!C31*0.000001,IF($I$12="PR",'Grid Emissions'!C59*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T41,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL41/T41,IF($I$12="AK",'Grid Emissions'!C20*0.000001,IF($I$12="DC",'Grid Emissions'!C27*0.000001,IF($I$12="HI",'Grid Emissions'!C31*0.000001,IF($I$12="PR",'Grid Emissions'!C59*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T41,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C20*0.000001,IF($I$12="DC",'Grid Emissions'!C27*0.000001,IF($I$12="HI",'Grid Emissions'!C31*0.000001,IF($I$12="PR",'Grid Emissions'!C59*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T41,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C20*0.000001,IF($I$12="DC",'Grid Emissions'!C27*0.000001,IF($I$12="HI",'Grid Emissions'!C31*0.000001,IF($I$12="PR",'Grid Emissions'!C59*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T41,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB41" s="204" t="e">
@@ -14374,7 +14374,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B42" s="243"/>
       <c r="C42" s="49"/>
       <c r="D42" s="146" t="str">
@@ -14463,11 +14463,11 @@
         <v>0</v>
       </c>
       <c r="Z42" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL42/T42,IF($I$12="AK",'Grid Emissions'!C21*0.000001,IF($I$12="DC",'Grid Emissions'!C28*0.000001,IF($I$12="HI",'Grid Emissions'!C32*0.000001,IF($I$12="PR",'Grid Emissions'!C60*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T42,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL42/T42,IF($I$12="AK",'Grid Emissions'!C21*0.000001,IF($I$12="DC",'Grid Emissions'!C28*0.000001,IF($I$12="HI",'Grid Emissions'!C32*0.000001,IF($I$12="PR",'Grid Emissions'!C60*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T42,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA42" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C21*0.000001,IF($I$12="DC",'Grid Emissions'!C28*0.000001,IF($I$12="HI",'Grid Emissions'!C32*0.000001,IF($I$12="PR",'Grid Emissions'!C60*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T42,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C21*0.000001,IF($I$12="DC",'Grid Emissions'!C28*0.000001,IF($I$12="HI",'Grid Emissions'!C32*0.000001,IF($I$12="PR",'Grid Emissions'!C60*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T42,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB42" s="204" t="e">
@@ -14543,7 +14543,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B43" s="243"/>
       <c r="C43" s="49"/>
       <c r="D43" s="146" t="str">
@@ -14632,11 +14632,11 @@
         <v>0</v>
       </c>
       <c r="Z43" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL43/T43,IF($I$12="AK",'Grid Emissions'!C22*0.000001,IF($I$12="DC",'Grid Emissions'!C29*0.000001,IF($I$12="HI",'Grid Emissions'!C33*0.000001,IF($I$12="PR",'Grid Emissions'!C61*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T43,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL43/T43,IF($I$12="AK",'Grid Emissions'!C22*0.000001,IF($I$12="DC",'Grid Emissions'!C29*0.000001,IF($I$12="HI",'Grid Emissions'!C33*0.000001,IF($I$12="PR",'Grid Emissions'!C61*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T43,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA43" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C22*0.000001,IF($I$12="DC",'Grid Emissions'!C29*0.000001,IF($I$12="HI",'Grid Emissions'!C33*0.000001,IF($I$12="PR",'Grid Emissions'!C61*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T43,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C22*0.000001,IF($I$12="DC",'Grid Emissions'!C29*0.000001,IF($I$12="HI",'Grid Emissions'!C33*0.000001,IF($I$12="PR",'Grid Emissions'!C61*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T43,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB43" s="204" t="e">
@@ -14712,7 +14712,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B44" s="243"/>
       <c r="C44" s="49"/>
       <c r="D44" s="146" t="str">
@@ -14801,11 +14801,11 @@
         <v>0</v>
       </c>
       <c r="Z44" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL44/T44,IF($I$12="AK",'Grid Emissions'!C23*0.000001,IF($I$12="DC",'Grid Emissions'!C30*0.000001,IF($I$12="HI",'Grid Emissions'!C34*0.000001,IF($I$12="PR",'Grid Emissions'!C62*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T44,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL44/T44,IF($I$12="AK",'Grid Emissions'!C23*0.000001,IF($I$12="DC",'Grid Emissions'!C30*0.000001,IF($I$12="HI",'Grid Emissions'!C34*0.000001,IF($I$12="PR",'Grid Emissions'!C62*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T44,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA44" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C23*0.000001,IF($I$12="DC",'Grid Emissions'!C30*0.000001,IF($I$12="HI",'Grid Emissions'!C34*0.000001,IF($I$12="PR",'Grid Emissions'!C62*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T44,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C23*0.000001,IF($I$12="DC",'Grid Emissions'!C30*0.000001,IF($I$12="HI",'Grid Emissions'!C34*0.000001,IF($I$12="PR",'Grid Emissions'!C62*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T44,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB44" s="204" t="e">
@@ -14881,7 +14881,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B45" s="243"/>
       <c r="C45" s="49"/>
       <c r="D45" s="146"/>
@@ -14967,11 +14967,11 @@
         <v>0</v>
       </c>
       <c r="Z45" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL45/T45,IF($I$12="AK",'Grid Emissions'!C24*0.000001,IF($I$12="DC",'Grid Emissions'!C31*0.000001,IF($I$12="HI",'Grid Emissions'!C35*0.000001,IF($I$12="PR",'Grid Emissions'!C63*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T45,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL45/T45,IF($I$12="AK",'Grid Emissions'!C24*0.000001,IF($I$12="DC",'Grid Emissions'!C31*0.000001,IF($I$12="HI",'Grid Emissions'!C35*0.000001,IF($I$12="PR",'Grid Emissions'!C63*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T45,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA45" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C24*0.000001,IF($I$12="DC",'Grid Emissions'!C31*0.000001,IF($I$12="HI",'Grid Emissions'!C35*0.000001,IF($I$12="PR",'Grid Emissions'!C63*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T45,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C24*0.000001,IF($I$12="DC",'Grid Emissions'!C31*0.000001,IF($I$12="HI",'Grid Emissions'!C35*0.000001,IF($I$12="PR",'Grid Emissions'!C63*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T45,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB45" s="204" t="e">
@@ -15047,7 +15047,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B46" s="243"/>
       <c r="C46" s="49"/>
       <c r="D46" s="146" t="str">
@@ -15136,11 +15136,11 @@
         <v>0</v>
       </c>
       <c r="Z46" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL46/T46,IF($I$12="AK",'Grid Emissions'!C25*0.000001,IF($I$12="DC",'Grid Emissions'!C32*0.000001,IF($I$12="HI",'Grid Emissions'!C36*0.000001,IF($I$12="PR",'Grid Emissions'!C64*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T46,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL46/T46,IF($I$12="AK",'Grid Emissions'!C25*0.000001,IF($I$12="DC",'Grid Emissions'!C32*0.000001,IF($I$12="HI",'Grid Emissions'!C36*0.000001,IF($I$12="PR",'Grid Emissions'!C64*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T46,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA46" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C25*0.000001,IF($I$12="DC",'Grid Emissions'!C32*0.000001,IF($I$12="HI",'Grid Emissions'!C36*0.000001,IF($I$12="PR",'Grid Emissions'!C64*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T46,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C25*0.000001,IF($I$12="DC",'Grid Emissions'!C32*0.000001,IF($I$12="HI",'Grid Emissions'!C36*0.000001,IF($I$12="PR",'Grid Emissions'!C64*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T46,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB46" s="204" t="e">
@@ -15216,7 +15216,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B47" s="243"/>
       <c r="C47" s="49"/>
       <c r="D47" s="146" t="str">
@@ -15305,11 +15305,11 @@
         <v>0</v>
       </c>
       <c r="Z47" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL47/T47,IF($I$12="AK",'Grid Emissions'!C26*0.000001,IF($I$12="DC",'Grid Emissions'!C33*0.000001,IF($I$12="HI",'Grid Emissions'!C37*0.000001,IF($I$12="PR",'Grid Emissions'!C65*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T47,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL47/T47,IF($I$12="AK",'Grid Emissions'!C26*0.000001,IF($I$12="DC",'Grid Emissions'!C33*0.000001,IF($I$12="HI",'Grid Emissions'!C37*0.000001,IF($I$12="PR",'Grid Emissions'!C65*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T47,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C26*0.000001,IF($I$12="DC",'Grid Emissions'!C33*0.000001,IF($I$12="HI",'Grid Emissions'!C37*0.000001,IF($I$12="PR",'Grid Emissions'!C65*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T47,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C26*0.000001,IF($I$12="DC",'Grid Emissions'!C33*0.000001,IF($I$12="HI",'Grid Emissions'!C37*0.000001,IF($I$12="PR",'Grid Emissions'!C65*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T47,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB47" s="204" t="e">
@@ -15385,7 +15385,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B48" s="243"/>
       <c r="C48" s="49"/>
       <c r="D48" s="146" t="str">
@@ -15474,11 +15474,11 @@
         <v>0</v>
       </c>
       <c r="Z48" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL48/T48,IF($I$12="AK",'Grid Emissions'!C27*0.000001,IF($I$12="DC",'Grid Emissions'!C34*0.000001,IF($I$12="HI",'Grid Emissions'!C38*0.000001,IF($I$12="PR",'Grid Emissions'!C66*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T48,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL48/T48,IF($I$12="AK",'Grid Emissions'!C27*0.000001,IF($I$12="DC",'Grid Emissions'!C34*0.000001,IF($I$12="HI",'Grid Emissions'!C38*0.000001,IF($I$12="PR",'Grid Emissions'!C66*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T48,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA48" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C27*0.000001,IF($I$12="DC",'Grid Emissions'!C34*0.000001,IF($I$12="HI",'Grid Emissions'!C38*0.000001,IF($I$12="PR",'Grid Emissions'!C66*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T48,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C27*0.000001,IF($I$12="DC",'Grid Emissions'!C34*0.000001,IF($I$12="HI",'Grid Emissions'!C38*0.000001,IF($I$12="PR",'Grid Emissions'!C66*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T48,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB48" s="204" t="e">
@@ -15554,7 +15554,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B49" s="243"/>
       <c r="C49" s="49"/>
       <c r="D49" s="146" t="str">
@@ -15643,11 +15643,11 @@
         <v>0</v>
       </c>
       <c r="Z49" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL49/T49,IF($I$12="AK",'Grid Emissions'!C28*0.000001,IF($I$12="DC",'Grid Emissions'!C35*0.000001,IF($I$12="HI",'Grid Emissions'!C39*0.000001,IF($I$12="PR",'Grid Emissions'!C67*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T49,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL49/T49,IF($I$12="AK",'Grid Emissions'!C28*0.000001,IF($I$12="DC",'Grid Emissions'!C35*0.000001,IF($I$12="HI",'Grid Emissions'!C39*0.000001,IF($I$12="PR",'Grid Emissions'!C67*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T49,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA49" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C28*0.000001,IF($I$12="DC",'Grid Emissions'!C35*0.000001,IF($I$12="HI",'Grid Emissions'!C39*0.000001,IF($I$12="PR",'Grid Emissions'!C67*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T49,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C28*0.000001,IF($I$12="DC",'Grid Emissions'!C35*0.000001,IF($I$12="HI",'Grid Emissions'!C39*0.000001,IF($I$12="PR",'Grid Emissions'!C67*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T49,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB49" s="204" t="e">
@@ -15723,7 +15723,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B50" s="243"/>
       <c r="C50" s="49"/>
       <c r="D50" s="146" t="str">
@@ -15812,11 +15812,11 @@
         <v>0</v>
       </c>
       <c r="Z50" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL50/T50,IF($I$12="AK",'Grid Emissions'!C29*0.000001,IF($I$12="DC",'Grid Emissions'!C36*0.000001,IF($I$12="HI",'Grid Emissions'!C40*0.000001,IF($I$12="PR",'Grid Emissions'!C68*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T50,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL50/T50,IF($I$12="AK",'Grid Emissions'!C29*0.000001,IF($I$12="DC",'Grid Emissions'!C36*0.000001,IF($I$12="HI",'Grid Emissions'!C40*0.000001,IF($I$12="PR",'Grid Emissions'!C68*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T50,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA50" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C29*0.000001,IF($I$12="DC",'Grid Emissions'!C36*0.000001,IF($I$12="HI",'Grid Emissions'!C40*0.000001,IF($I$12="PR",'Grid Emissions'!C68*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T50,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C29*0.000001,IF($I$12="DC",'Grid Emissions'!C36*0.000001,IF($I$12="HI",'Grid Emissions'!C40*0.000001,IF($I$12="PR",'Grid Emissions'!C68*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T50,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB50" s="204" t="e">
@@ -15892,7 +15892,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B51" s="243"/>
       <c r="C51" s="49"/>
       <c r="D51" s="146" t="str">
@@ -15981,11 +15981,11 @@
         <v>0</v>
       </c>
       <c r="Z51" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL51/T51,IF($I$12="AK",'Grid Emissions'!C30*0.000001,IF($I$12="DC",'Grid Emissions'!C37*0.000001,IF($I$12="HI",'Grid Emissions'!C41*0.000001,IF($I$12="PR",'Grid Emissions'!C69*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T51,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL51/T51,IF($I$12="AK",'Grid Emissions'!C30*0.000001,IF($I$12="DC",'Grid Emissions'!C37*0.000001,IF($I$12="HI",'Grid Emissions'!C41*0.000001,IF($I$12="PR",'Grid Emissions'!C69*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T51,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA51" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C30*0.000001,IF($I$12="DC",'Grid Emissions'!C37*0.000001,IF($I$12="HI",'Grid Emissions'!C41*0.000001,IF($I$12="PR",'Grid Emissions'!C69*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T51,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C30*0.000001,IF($I$12="DC",'Grid Emissions'!C37*0.000001,IF($I$12="HI",'Grid Emissions'!C41*0.000001,IF($I$12="PR",'Grid Emissions'!C69*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T51,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB51" s="204" t="e">
@@ -16061,7 +16061,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B52" s="243"/>
       <c r="C52" s="49"/>
       <c r="D52" s="146" t="str">
@@ -16150,11 +16150,11 @@
         <v>0</v>
       </c>
       <c r="Z52" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL52/T52,IF($I$12="AK",'Grid Emissions'!C31*0.000001,IF($I$12="DC",'Grid Emissions'!C38*0.000001,IF($I$12="HI",'Grid Emissions'!C42*0.000001,IF($I$12="PR",'Grid Emissions'!C70*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T52,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL52/T52,IF($I$12="AK",'Grid Emissions'!C31*0.000001,IF($I$12="DC",'Grid Emissions'!C38*0.000001,IF($I$12="HI",'Grid Emissions'!C42*0.000001,IF($I$12="PR",'Grid Emissions'!C70*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T52,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C31*0.000001,IF($I$12="DC",'Grid Emissions'!C38*0.000001,IF($I$12="HI",'Grid Emissions'!C42*0.000001,IF($I$12="PR",'Grid Emissions'!C70*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T52,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C31*0.000001,IF($I$12="DC",'Grid Emissions'!C38*0.000001,IF($I$12="HI",'Grid Emissions'!C42*0.000001,IF($I$12="PR",'Grid Emissions'!C70*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T52,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB52" s="204" t="e">
@@ -16230,7 +16230,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B53" s="243"/>
       <c r="C53" s="49"/>
       <c r="D53" s="146" t="str">
@@ -16319,11 +16319,11 @@
         <v>0</v>
       </c>
       <c r="Z53" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL53/T53,IF($I$12="AK",'Grid Emissions'!C32*0.000001,IF($I$12="DC",'Grid Emissions'!C39*0.000001,IF($I$12="HI",'Grid Emissions'!C43*0.000001,IF($I$12="PR",'Grid Emissions'!C71*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T53,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL53/T53,IF($I$12="AK",'Grid Emissions'!C32*0.000001,IF($I$12="DC",'Grid Emissions'!C39*0.000001,IF($I$12="HI",'Grid Emissions'!C43*0.000001,IF($I$12="PR",'Grid Emissions'!C71*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T53,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA53" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C32*0.000001,IF($I$12="DC",'Grid Emissions'!C39*0.000001,IF($I$12="HI",'Grid Emissions'!C43*0.000001,IF($I$12="PR",'Grid Emissions'!C71*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T53,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C32*0.000001,IF($I$12="DC",'Grid Emissions'!C39*0.000001,IF($I$12="HI",'Grid Emissions'!C43*0.000001,IF($I$12="PR",'Grid Emissions'!C71*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T53,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB53" s="204" t="e">
@@ -16399,7 +16399,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B54" s="243"/>
       <c r="C54" s="49"/>
       <c r="D54" s="146" t="str">
@@ -16488,11 +16488,11 @@
         <v>0</v>
       </c>
       <c r="Z54" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL54/T54,IF($I$12="AK",'Grid Emissions'!C33*0.000001,IF($I$12="DC",'Grid Emissions'!C40*0.000001,IF($I$12="HI",'Grid Emissions'!C44*0.000001,IF($I$12="PR",'Grid Emissions'!C72*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T54,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL54/T54,IF($I$12="AK",'Grid Emissions'!C33*0.000001,IF($I$12="DC",'Grid Emissions'!C40*0.000001,IF($I$12="HI",'Grid Emissions'!C44*0.000001,IF($I$12="PR",'Grid Emissions'!C72*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T54,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA54" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C33*0.000001,IF($I$12="DC",'Grid Emissions'!C40*0.000001,IF($I$12="HI",'Grid Emissions'!C44*0.000001,IF($I$12="PR",'Grid Emissions'!C72*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T54,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C33*0.000001,IF($I$12="DC",'Grid Emissions'!C40*0.000001,IF($I$12="HI",'Grid Emissions'!C44*0.000001,IF($I$12="PR",'Grid Emissions'!C72*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T54,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB54" s="204" t="e">
@@ -16568,7 +16568,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B55" s="243"/>
       <c r="C55" s="49"/>
       <c r="D55" s="146" t="str">
@@ -16657,11 +16657,11 @@
         <v>0</v>
       </c>
       <c r="Z55" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL55/T55,IF($I$12="AK",'Grid Emissions'!C34*0.000001,IF($I$12="DC",'Grid Emissions'!C41*0.000001,IF($I$12="HI",'Grid Emissions'!C45*0.000001,IF($I$12="PR",'Grid Emissions'!C73*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T55,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL55/T55,IF($I$12="AK",'Grid Emissions'!C34*0.000001,IF($I$12="DC",'Grid Emissions'!C41*0.000001,IF($I$12="HI",'Grid Emissions'!C45*0.000001,IF($I$12="PR",'Grid Emissions'!C73*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T55,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA55" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C34*0.000001,IF($I$12="DC",'Grid Emissions'!C41*0.000001,IF($I$12="HI",'Grid Emissions'!C45*0.000001,IF($I$12="PR",'Grid Emissions'!C73*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T55,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C34*0.000001,IF($I$12="DC",'Grid Emissions'!C41*0.000001,IF($I$12="HI",'Grid Emissions'!C45*0.000001,IF($I$12="PR",'Grid Emissions'!C73*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T55,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB55" s="204" t="e">
@@ -16737,7 +16737,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B56" s="243"/>
       <c r="C56" s="49"/>
       <c r="D56" s="146" t="str">
@@ -16826,11 +16826,11 @@
         <v>0</v>
       </c>
       <c r="Z56" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL56/T56,IF($I$12="AK",'Grid Emissions'!C35*0.000001,IF($I$12="DC",'Grid Emissions'!C42*0.000001,IF($I$12="HI",'Grid Emissions'!C46*0.000001,IF($I$12="PR",'Grid Emissions'!C74*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T56,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL56/T56,IF($I$12="AK",'Grid Emissions'!C35*0.000001,IF($I$12="DC",'Grid Emissions'!C42*0.000001,IF($I$12="HI",'Grid Emissions'!C46*0.000001,IF($I$12="PR",'Grid Emissions'!C74*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T56,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA56" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C35*0.000001,IF($I$12="DC",'Grid Emissions'!C42*0.000001,IF($I$12="HI",'Grid Emissions'!C46*0.000001,IF($I$12="PR",'Grid Emissions'!C74*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T56,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C35*0.000001,IF($I$12="DC",'Grid Emissions'!C42*0.000001,IF($I$12="HI",'Grid Emissions'!C46*0.000001,IF($I$12="PR",'Grid Emissions'!C74*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T56,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB56" s="204" t="e">
@@ -16906,7 +16906,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B57" s="243"/>
       <c r="C57" s="49"/>
       <c r="D57" s="146" t="str">
@@ -16995,11 +16995,11 @@
         <v>0</v>
       </c>
       <c r="Z57" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL57/T57,IF($I$12="AK",'Grid Emissions'!C36*0.000001,IF($I$12="DC",'Grid Emissions'!C43*0.000001,IF($I$12="HI",'Grid Emissions'!C47*0.000001,IF($I$12="PR",'Grid Emissions'!C75*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T57,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL57/T57,IF($I$12="AK",'Grid Emissions'!C36*0.000001,IF($I$12="DC",'Grid Emissions'!C43*0.000001,IF($I$12="HI",'Grid Emissions'!C47*0.000001,IF($I$12="PR",'Grid Emissions'!C75*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T57,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA57" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C36*0.000001,IF($I$12="DC",'Grid Emissions'!C43*0.000001,IF($I$12="HI",'Grid Emissions'!C47*0.000001,IF($I$12="PR",'Grid Emissions'!C75*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T57,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C36*0.000001,IF($I$12="DC",'Grid Emissions'!C43*0.000001,IF($I$12="HI",'Grid Emissions'!C47*0.000001,IF($I$12="PR",'Grid Emissions'!C75*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T57,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB57" s="204" t="e">
@@ -17075,7 +17075,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B58" s="243"/>
       <c r="C58" s="49"/>
       <c r="D58" s="146" t="str">
@@ -17164,11 +17164,11 @@
         <v>0</v>
       </c>
       <c r="Z58" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL58/T58,IF($I$12="AK",'Grid Emissions'!C37*0.000001,IF($I$12="DC",'Grid Emissions'!C44*0.000001,IF($I$12="HI",'Grid Emissions'!C48*0.000001,IF($I$12="PR",'Grid Emissions'!C76*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T58,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL58/T58,IF($I$12="AK",'Grid Emissions'!C37*0.000001,IF($I$12="DC",'Grid Emissions'!C44*0.000001,IF($I$12="HI",'Grid Emissions'!C48*0.000001,IF($I$12="PR",'Grid Emissions'!C76*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T58,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA58" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C37*0.000001,IF($I$12="DC",'Grid Emissions'!C44*0.000001,IF($I$12="HI",'Grid Emissions'!C48*0.000001,IF($I$12="PR",'Grid Emissions'!C76*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T58,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C37*0.000001,IF($I$12="DC",'Grid Emissions'!C44*0.000001,IF($I$12="HI",'Grid Emissions'!C48*0.000001,IF($I$12="PR",'Grid Emissions'!C76*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T58,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB58" s="204" t="e">
@@ -17244,7 +17244,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B59" s="243"/>
       <c r="C59" s="49"/>
       <c r="D59" s="146" t="str">
@@ -17333,11 +17333,11 @@
         <v>0</v>
       </c>
       <c r="Z59" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL59/T59,IF($I$12="AK",'Grid Emissions'!C38*0.000001,IF($I$12="DC",'Grid Emissions'!C45*0.000001,IF($I$12="HI",'Grid Emissions'!C49*0.000001,IF($I$12="PR",'Grid Emissions'!C77*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T59,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL59/T59,IF($I$12="AK",'Grid Emissions'!C38*0.000001,IF($I$12="DC",'Grid Emissions'!C45*0.000001,IF($I$12="HI",'Grid Emissions'!C49*0.000001,IF($I$12="PR",'Grid Emissions'!C77*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T59,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA59" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C38*0.000001,IF($I$12="DC",'Grid Emissions'!C45*0.000001,IF($I$12="HI",'Grid Emissions'!C49*0.000001,IF($I$12="PR",'Grid Emissions'!C77*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T59,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C38*0.000001,IF($I$12="DC",'Grid Emissions'!C45*0.000001,IF($I$12="HI",'Grid Emissions'!C49*0.000001,IF($I$12="PR",'Grid Emissions'!C77*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T59,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB59" s="204" t="e">
@@ -17413,7 +17413,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B60" s="243"/>
       <c r="C60" s="49"/>
       <c r="D60" s="146" t="str">
@@ -17502,11 +17502,11 @@
         <v>0</v>
       </c>
       <c r="Z60" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL60/T60,IF($I$12="AK",'Grid Emissions'!C39*0.000001,IF($I$12="DC",'Grid Emissions'!C46*0.000001,IF($I$12="HI",'Grid Emissions'!C50*0.000001,IF($I$12="PR",'Grid Emissions'!C78*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T60,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL60/T60,IF($I$12="AK",'Grid Emissions'!C39*0.000001,IF($I$12="DC",'Grid Emissions'!C46*0.000001,IF($I$12="HI",'Grid Emissions'!C50*0.000001,IF($I$12="PR",'Grid Emissions'!C78*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T60,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA60" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C39*0.000001,IF($I$12="DC",'Grid Emissions'!C46*0.000001,IF($I$12="HI",'Grid Emissions'!C50*0.000001,IF($I$12="PR",'Grid Emissions'!C78*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T60,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C39*0.000001,IF($I$12="DC",'Grid Emissions'!C46*0.000001,IF($I$12="HI",'Grid Emissions'!C50*0.000001,IF($I$12="PR",'Grid Emissions'!C78*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T60,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB60" s="204" t="e">
@@ -17582,7 +17582,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B61" s="243"/>
       <c r="C61" s="49"/>
       <c r="D61" s="146" t="str">
@@ -17671,11 +17671,11 @@
         <v>0</v>
       </c>
       <c r="Z61" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL61/T61,IF($I$12="AK",'Grid Emissions'!C40*0.000001,IF($I$12="DC",'Grid Emissions'!C47*0.000001,IF($I$12="HI",'Grid Emissions'!C51*0.000001,IF($I$12="PR",'Grid Emissions'!C79*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T61,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL61/T61,IF($I$12="AK",'Grid Emissions'!C40*0.000001,IF($I$12="DC",'Grid Emissions'!C47*0.000001,IF($I$12="HI",'Grid Emissions'!C51*0.000001,IF($I$12="PR",'Grid Emissions'!C79*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T61,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA61" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C40*0.000001,IF($I$12="DC",'Grid Emissions'!C47*0.000001,IF($I$12="HI",'Grid Emissions'!C51*0.000001,IF($I$12="PR",'Grid Emissions'!C79*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T61,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C40*0.000001,IF($I$12="DC",'Grid Emissions'!C47*0.000001,IF($I$12="HI",'Grid Emissions'!C51*0.000001,IF($I$12="PR",'Grid Emissions'!C79*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T61,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB61" s="204" t="e">
@@ -17751,7 +17751,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B62" s="243"/>
       <c r="C62" s="49"/>
       <c r="D62" s="146" t="str">
@@ -17840,11 +17840,11 @@
         <v>0</v>
       </c>
       <c r="Z62" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL62/T62,IF($I$12="AK",'Grid Emissions'!C41*0.000001,IF($I$12="DC",'Grid Emissions'!C48*0.000001,IF($I$12="HI",'Grid Emissions'!C52*0.000001,IF($I$12="PR",'Grid Emissions'!C80*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T62,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL62/T62,IF($I$12="AK",'Grid Emissions'!C41*0.000001,IF($I$12="DC",'Grid Emissions'!C48*0.000001,IF($I$12="HI",'Grid Emissions'!C52*0.000001,IF($I$12="PR",'Grid Emissions'!C80*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T62,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA62" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C41*0.000001,IF($I$12="DC",'Grid Emissions'!C48*0.000001,IF($I$12="HI",'Grid Emissions'!C52*0.000001,IF($I$12="PR",'Grid Emissions'!C80*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T62,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C41*0.000001,IF($I$12="DC",'Grid Emissions'!C48*0.000001,IF($I$12="HI",'Grid Emissions'!C52*0.000001,IF($I$12="PR",'Grid Emissions'!C80*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T62,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB62" s="204" t="e">
@@ -17920,7 +17920,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B63" s="243"/>
       <c r="C63" s="49"/>
       <c r="D63" s="146" t="str">
@@ -18009,11 +18009,11 @@
         <v>0</v>
       </c>
       <c r="Z63" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL63/T63,IF($I$12="AK",'Grid Emissions'!C42*0.000001,IF($I$12="DC",'Grid Emissions'!C49*0.000001,IF($I$12="HI",'Grid Emissions'!C53*0.000001,IF($I$12="PR",'Grid Emissions'!C81*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T63,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL63/T63,IF($I$12="AK",'Grid Emissions'!C42*0.000001,IF($I$12="DC",'Grid Emissions'!C49*0.000001,IF($I$12="HI",'Grid Emissions'!C53*0.000001,IF($I$12="PR",'Grid Emissions'!C81*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T63,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA63" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C42*0.000001,IF($I$12="DC",'Grid Emissions'!C49*0.000001,IF($I$12="HI",'Grid Emissions'!C53*0.000001,IF($I$12="PR",'Grid Emissions'!C81*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T63,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C42*0.000001,IF($I$12="DC",'Grid Emissions'!C49*0.000001,IF($I$12="HI",'Grid Emissions'!C53*0.000001,IF($I$12="PR",'Grid Emissions'!C81*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T63,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB63" s="204" t="e">
@@ -18089,7 +18089,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B64" s="243"/>
       <c r="C64" s="49"/>
       <c r="D64" s="146" t="str">
@@ -18178,11 +18178,11 @@
         <v>0</v>
       </c>
       <c r="Z64" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL64/T64,IF($I$12="AK",'Grid Emissions'!C43*0.000001,IF($I$12="DC",'Grid Emissions'!C50*0.000001,IF($I$12="HI",'Grid Emissions'!C54*0.000001,IF($I$12="PR",'Grid Emissions'!C82*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T64,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL64/T64,IF($I$12="AK",'Grid Emissions'!C43*0.000001,IF($I$12="DC",'Grid Emissions'!C50*0.000001,IF($I$12="HI",'Grid Emissions'!C54*0.000001,IF($I$12="PR",'Grid Emissions'!C82*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T64,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA64" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C43*0.000001,IF($I$12="DC",'Grid Emissions'!C50*0.000001,IF($I$12="HI",'Grid Emissions'!C54*0.000001,IF($I$12="PR",'Grid Emissions'!C82*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T64,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C43*0.000001,IF($I$12="DC",'Grid Emissions'!C50*0.000001,IF($I$12="HI",'Grid Emissions'!C54*0.000001,IF($I$12="PR",'Grid Emissions'!C82*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T64,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB64" s="204" t="e">
@@ -18258,7 +18258,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B65" s="243"/>
       <c r="C65" s="49"/>
       <c r="D65" s="146" t="str">
@@ -18347,11 +18347,11 @@
         <v>0</v>
       </c>
       <c r="Z65" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL65/T65,IF($I$12="AK",'Grid Emissions'!C44*0.000001,IF($I$12="DC",'Grid Emissions'!C51*0.000001,IF($I$12="HI",'Grid Emissions'!C55*0.000001,IF($I$12="PR",'Grid Emissions'!C83*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T65,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL65/T65,IF($I$12="AK",'Grid Emissions'!C44*0.000001,IF($I$12="DC",'Grid Emissions'!C51*0.000001,IF($I$12="HI",'Grid Emissions'!C55*0.000001,IF($I$12="PR",'Grid Emissions'!C83*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T65,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C44*0.000001,IF($I$12="DC",'Grid Emissions'!C51*0.000001,IF($I$12="HI",'Grid Emissions'!C55*0.000001,IF($I$12="PR",'Grid Emissions'!C83*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T65,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C44*0.000001,IF($I$12="DC",'Grid Emissions'!C51*0.000001,IF($I$12="HI",'Grid Emissions'!C55*0.000001,IF($I$12="PR",'Grid Emissions'!C83*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T65,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB65" s="204" t="e">
@@ -18427,7 +18427,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B66" s="243"/>
       <c r="C66" s="49"/>
       <c r="D66" s="146" t="str">
@@ -18516,11 +18516,11 @@
         <v>0</v>
       </c>
       <c r="Z66" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL66/T66,IF($I$12="AK",'Grid Emissions'!C45*0.000001,IF($I$12="DC",'Grid Emissions'!C52*0.000001,IF($I$12="HI",'Grid Emissions'!C56*0.000001,IF($I$12="PR",'Grid Emissions'!C84*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T66,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL66/T66,IF($I$12="AK",'Grid Emissions'!C45*0.000001,IF($I$12="DC",'Grid Emissions'!C52*0.000001,IF($I$12="HI",'Grid Emissions'!C56*0.000001,IF($I$12="PR",'Grid Emissions'!C84*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T66,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA66" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C45*0.000001,IF($I$12="DC",'Grid Emissions'!C52*0.000001,IF($I$12="HI",'Grid Emissions'!C56*0.000001,IF($I$12="PR",'Grid Emissions'!C84*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T66,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C45*0.000001,IF($I$12="DC",'Grid Emissions'!C52*0.000001,IF($I$12="HI",'Grid Emissions'!C56*0.000001,IF($I$12="PR",'Grid Emissions'!C84*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T66,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB66" s="204" t="e">
@@ -18596,7 +18596,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B67" s="243"/>
       <c r="C67" s="49"/>
       <c r="D67" s="146" t="str">
@@ -18685,11 +18685,11 @@
         <v>0</v>
       </c>
       <c r="Z67" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL67/T67,IF($I$12="AK",'Grid Emissions'!C46*0.000001,IF($I$12="DC",'Grid Emissions'!C53*0.000001,IF($I$12="HI",'Grid Emissions'!C57*0.000001,IF($I$12="PR",'Grid Emissions'!C85*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T67,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL67/T67,IF($I$12="AK",'Grid Emissions'!C46*0.000001,IF($I$12="DC",'Grid Emissions'!C53*0.000001,IF($I$12="HI",'Grid Emissions'!C57*0.000001,IF($I$12="PR",'Grid Emissions'!C85*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T67,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA67" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C46*0.000001,IF($I$12="DC",'Grid Emissions'!C53*0.000001,IF($I$12="HI",'Grid Emissions'!C57*0.000001,IF($I$12="PR",'Grid Emissions'!C85*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T67,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C46*0.000001,IF($I$12="DC",'Grid Emissions'!C53*0.000001,IF($I$12="HI",'Grid Emissions'!C57*0.000001,IF($I$12="PR",'Grid Emissions'!C85*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T67,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB67" s="204" t="e">
@@ -18765,7 +18765,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B68" s="243"/>
       <c r="C68" s="49"/>
       <c r="D68" s="146" t="str">
@@ -18854,11 +18854,11 @@
         <v>0</v>
       </c>
       <c r="Z68" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL68/T68,IF($I$12="AK",'Grid Emissions'!C47*0.000001,IF($I$12="DC",'Grid Emissions'!C54*0.000001,IF($I$12="HI",'Grid Emissions'!C58*0.000001,IF($I$12="PR",'Grid Emissions'!C86*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T68,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL68/T68,IF($I$12="AK",'Grid Emissions'!C47*0.000001,IF($I$12="DC",'Grid Emissions'!C54*0.000001,IF($I$12="HI",'Grid Emissions'!C58*0.000001,IF($I$12="PR",'Grid Emissions'!C86*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T68,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C47*0.000001,IF($I$12="DC",'Grid Emissions'!C54*0.000001,IF($I$12="HI",'Grid Emissions'!C58*0.000001,IF($I$12="PR",'Grid Emissions'!C86*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T68,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C47*0.000001,IF($I$12="DC",'Grid Emissions'!C54*0.000001,IF($I$12="HI",'Grid Emissions'!C58*0.000001,IF($I$12="PR",'Grid Emissions'!C86*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T68,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB68" s="204" t="e">
@@ -18934,7 +18934,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B69" s="243"/>
       <c r="C69" s="49"/>
       <c r="D69" s="146" t="str">
@@ -19023,11 +19023,11 @@
         <v>0</v>
       </c>
       <c r="Z69" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL69/T69,IF($I$12="AK",'Grid Emissions'!C48*0.000001,IF($I$12="DC",'Grid Emissions'!C55*0.000001,IF($I$12="HI",'Grid Emissions'!C59*0.000001,IF($I$12="PR",'Grid Emissions'!C87*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T69,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL69/T69,IF($I$12="AK",'Grid Emissions'!C48*0.000001,IF($I$12="DC",'Grid Emissions'!C55*0.000001,IF($I$12="HI",'Grid Emissions'!C59*0.000001,IF($I$12="PR",'Grid Emissions'!C87*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T69,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C48*0.000001,IF($I$12="DC",'Grid Emissions'!C55*0.000001,IF($I$12="HI",'Grid Emissions'!C59*0.000001,IF($I$12="PR",'Grid Emissions'!C87*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T69,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C48*0.000001,IF($I$12="DC",'Grid Emissions'!C55*0.000001,IF($I$12="HI",'Grid Emissions'!C59*0.000001,IF($I$12="PR",'Grid Emissions'!C87*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T69,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB69" s="204" t="e">
@@ -19103,7 +19103,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B70" s="243"/>
       <c r="C70" s="49"/>
       <c r="D70" s="146" t="str">
@@ -19192,11 +19192,11 @@
         <v>0</v>
       </c>
       <c r="Z70" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL70/T70,IF($I$12="AK",'Grid Emissions'!C49*0.000001,IF($I$12="DC",'Grid Emissions'!C56*0.000001,IF($I$12="HI",'Grid Emissions'!C60*0.000001,IF($I$12="PR",'Grid Emissions'!C88*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T70,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL70/T70,IF($I$12="AK",'Grid Emissions'!C49*0.000001,IF($I$12="DC",'Grid Emissions'!C56*0.000001,IF($I$12="HI",'Grid Emissions'!C60*0.000001,IF($I$12="PR",'Grid Emissions'!C88*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T70,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA70" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C49*0.000001,IF($I$12="DC",'Grid Emissions'!C56*0.000001,IF($I$12="HI",'Grid Emissions'!C60*0.000001,IF($I$12="PR",'Grid Emissions'!C88*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T70,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C49*0.000001,IF($I$12="DC",'Grid Emissions'!C56*0.000001,IF($I$12="HI",'Grid Emissions'!C60*0.000001,IF($I$12="PR",'Grid Emissions'!C88*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T70,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB70" s="204" t="e">
@@ -19272,7 +19272,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B71" s="243"/>
       <c r="C71" s="49"/>
       <c r="D71" s="146" t="str">
@@ -19361,11 +19361,11 @@
         <v>0</v>
       </c>
       <c r="Z71" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL71/T71,IF($I$12="AK",'Grid Emissions'!C50*0.000001,IF($I$12="DC",'Grid Emissions'!C57*0.000001,IF($I$12="HI",'Grid Emissions'!C61*0.000001,IF($I$12="PR",'Grid Emissions'!C89*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T71,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL71/T71,IF($I$12="AK",'Grid Emissions'!C50*0.000001,IF($I$12="DC",'Grid Emissions'!C57*0.000001,IF($I$12="HI",'Grid Emissions'!C61*0.000001,IF($I$12="PR",'Grid Emissions'!C89*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T71,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA71" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C50*0.000001,IF($I$12="DC",'Grid Emissions'!C57*0.000001,IF($I$12="HI",'Grid Emissions'!C61*0.000001,IF($I$12="PR",'Grid Emissions'!C89*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T71,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C50*0.000001,IF($I$12="DC",'Grid Emissions'!C57*0.000001,IF($I$12="HI",'Grid Emissions'!C61*0.000001,IF($I$12="PR",'Grid Emissions'!C89*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T71,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB71" s="204" t="e">
@@ -19441,7 +19441,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B72" s="243"/>
       <c r="C72" s="49"/>
       <c r="D72" s="146" t="str">
@@ -19530,11 +19530,11 @@
         <v>0</v>
       </c>
       <c r="Z72" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL72/T72,IF($I$12="AK",'Grid Emissions'!C51*0.000001,IF($I$12="DC",'Grid Emissions'!C58*0.000001,IF($I$12="HI",'Grid Emissions'!C62*0.000001,IF($I$12="PR",'Grid Emissions'!C90*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T72,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL72/T72,IF($I$12="AK",'Grid Emissions'!C51*0.000001,IF($I$12="DC",'Grid Emissions'!C58*0.000001,IF($I$12="HI",'Grid Emissions'!C62*0.000001,IF($I$12="PR",'Grid Emissions'!C90*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T72,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA72" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C51*0.000001,IF($I$12="DC",'Grid Emissions'!C58*0.000001,IF($I$12="HI",'Grid Emissions'!C62*0.000001,IF($I$12="PR",'Grid Emissions'!C90*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T72,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C51*0.000001,IF($I$12="DC",'Grid Emissions'!C58*0.000001,IF($I$12="HI",'Grid Emissions'!C62*0.000001,IF($I$12="PR",'Grid Emissions'!C90*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T72,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB72" s="204" t="e">
@@ -19610,7 +19610,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B73" s="243"/>
       <c r="C73" s="49"/>
       <c r="D73" s="146" t="str">
@@ -19699,11 +19699,11 @@
         <v>0</v>
       </c>
       <c r="Z73" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL73/T73,IF($I$12="AK",'Grid Emissions'!C52*0.000001,IF($I$12="DC",'Grid Emissions'!C59*0.000001,IF($I$12="HI",'Grid Emissions'!C63*0.000001,IF($I$12="PR",'Grid Emissions'!C91*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T73,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL73/T73,IF($I$12="AK",'Grid Emissions'!C52*0.000001,IF($I$12="DC",'Grid Emissions'!C59*0.000001,IF($I$12="HI",'Grid Emissions'!C63*0.000001,IF($I$12="PR",'Grid Emissions'!C91*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T73,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA73" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C52*0.000001,IF($I$12="DC",'Grid Emissions'!C59*0.000001,IF($I$12="HI",'Grid Emissions'!C63*0.000001,IF($I$12="PR",'Grid Emissions'!C91*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T73,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C52*0.000001,IF($I$12="DC",'Grid Emissions'!C59*0.000001,IF($I$12="HI",'Grid Emissions'!C63*0.000001,IF($I$12="PR",'Grid Emissions'!C91*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T73,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB73" s="204" t="e">
@@ -19779,7 +19779,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B74" s="243"/>
       <c r="C74" s="49"/>
       <c r="D74" s="146" t="str">
@@ -19868,11 +19868,11 @@
         <v>0</v>
       </c>
       <c r="Z74" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL74/T74,IF($I$12="AK",'Grid Emissions'!C53*0.000001,IF($I$12="DC",'Grid Emissions'!C60*0.000001,IF($I$12="HI",'Grid Emissions'!C64*0.000001,IF($I$12="PR",'Grid Emissions'!C92*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T74,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL74/T74,IF($I$12="AK",'Grid Emissions'!C53*0.000001,IF($I$12="DC",'Grid Emissions'!C60*0.000001,IF($I$12="HI",'Grid Emissions'!C64*0.000001,IF($I$12="PR",'Grid Emissions'!C92*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T74,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA74" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C53*0.000001,IF($I$12="DC",'Grid Emissions'!C60*0.000001,IF($I$12="HI",'Grid Emissions'!C64*0.000001,IF($I$12="PR",'Grid Emissions'!C92*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T74,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C53*0.000001,IF($I$12="DC",'Grid Emissions'!C60*0.000001,IF($I$12="HI",'Grid Emissions'!C64*0.000001,IF($I$12="PR",'Grid Emissions'!C92*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T74,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB74" s="204" t="e">
@@ -19948,7 +19948,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B75" s="243"/>
       <c r="C75" s="49"/>
       <c r="D75" s="146" t="str">
@@ -20037,11 +20037,11 @@
         <v>0</v>
       </c>
       <c r="Z75" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL75/T75,IF($I$12="AK",'Grid Emissions'!C54*0.000001,IF($I$12="DC",'Grid Emissions'!C61*0.000001,IF($I$12="HI",'Grid Emissions'!C65*0.000001,IF($I$12="PR",'Grid Emissions'!C93*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T75,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL75/T75,IF($I$12="AK",'Grid Emissions'!C54*0.000001,IF($I$12="DC",'Grid Emissions'!C61*0.000001,IF($I$12="HI",'Grid Emissions'!C65*0.000001,IF($I$12="PR",'Grid Emissions'!C93*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T75,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA75" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C54*0.000001,IF($I$12="DC",'Grid Emissions'!C61*0.000001,IF($I$12="HI",'Grid Emissions'!C65*0.000001,IF($I$12="PR",'Grid Emissions'!C93*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T75,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C54*0.000001,IF($I$12="DC",'Grid Emissions'!C61*0.000001,IF($I$12="HI",'Grid Emissions'!C65*0.000001,IF($I$12="PR",'Grid Emissions'!C93*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T75,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB75" s="204" t="e">
@@ -20117,7 +20117,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B76" s="243"/>
       <c r="C76" s="49"/>
       <c r="D76" s="146" t="str">
@@ -20206,11 +20206,11 @@
         <v>0</v>
       </c>
       <c r="Z76" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL76/T76,IF($I$12="AK",'Grid Emissions'!C55*0.000001,IF($I$12="DC",'Grid Emissions'!C62*0.000001,IF($I$12="HI",'Grid Emissions'!C66*0.000001,IF($I$12="PR",'Grid Emissions'!C94*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T76,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL76/T76,IF($I$12="AK",'Grid Emissions'!C55*0.000001,IF($I$12="DC",'Grid Emissions'!C62*0.000001,IF($I$12="HI",'Grid Emissions'!C66*0.000001,IF($I$12="PR",'Grid Emissions'!C94*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T76,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA76" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C55*0.000001,IF($I$12="DC",'Grid Emissions'!C62*0.000001,IF($I$12="HI",'Grid Emissions'!C66*0.000001,IF($I$12="PR",'Grid Emissions'!C94*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T76,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C55*0.000001,IF($I$12="DC",'Grid Emissions'!C62*0.000001,IF($I$12="HI",'Grid Emissions'!C66*0.000001,IF($I$12="PR",'Grid Emissions'!C94*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T76,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB76" s="204" t="e">
@@ -20286,7 +20286,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B77" s="243"/>
       <c r="C77" s="49"/>
       <c r="D77" s="146" t="str">
@@ -20375,11 +20375,11 @@
         <v>0</v>
       </c>
       <c r="Z77" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL77/T77,IF($I$12="AK",'Grid Emissions'!C56*0.000001,IF($I$12="DC",'Grid Emissions'!C63*0.000001,IF($I$12="HI",'Grid Emissions'!C67*0.000001,IF($I$12="PR",'Grid Emissions'!C95*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T77,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL77/T77,IF($I$12="AK",'Grid Emissions'!C56*0.000001,IF($I$12="DC",'Grid Emissions'!C63*0.000001,IF($I$12="HI",'Grid Emissions'!C67*0.000001,IF($I$12="PR",'Grid Emissions'!C95*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T77,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA77" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C56*0.000001,IF($I$12="DC",'Grid Emissions'!C63*0.000001,IF($I$12="HI",'Grid Emissions'!C67*0.000001,IF($I$12="PR",'Grid Emissions'!C95*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T77,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C56*0.000001,IF($I$12="DC",'Grid Emissions'!C63*0.000001,IF($I$12="HI",'Grid Emissions'!C67*0.000001,IF($I$12="PR",'Grid Emissions'!C95*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T77,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB77" s="204" t="e">
@@ -20455,7 +20455,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B78" s="243"/>
       <c r="C78" s="49"/>
       <c r="D78" s="146" t="str">
@@ -20544,11 +20544,11 @@
         <v>0</v>
       </c>
       <c r="Z78" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL78/T78,IF($I$12="AK",'Grid Emissions'!C57*0.000001,IF($I$12="DC",'Grid Emissions'!C64*0.000001,IF($I$12="HI",'Grid Emissions'!C68*0.000001,IF($I$12="PR",'Grid Emissions'!C96*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T78,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL78/T78,IF($I$12="AK",'Grid Emissions'!C57*0.000001,IF($I$12="DC",'Grid Emissions'!C64*0.000001,IF($I$12="HI",'Grid Emissions'!C68*0.000001,IF($I$12="PR",'Grid Emissions'!C96*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T78,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA78" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C57*0.000001,IF($I$12="DC",'Grid Emissions'!C64*0.000001,IF($I$12="HI",'Grid Emissions'!C68*0.000001,IF($I$12="PR",'Grid Emissions'!C96*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T78,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C57*0.000001,IF($I$12="DC",'Grid Emissions'!C64*0.000001,IF($I$12="HI",'Grid Emissions'!C68*0.000001,IF($I$12="PR",'Grid Emissions'!C96*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T78,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB78" s="204" t="e">
@@ -20624,7 +20624,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B79" s="243"/>
       <c r="C79" s="49"/>
       <c r="D79" s="146" t="str">
@@ -20713,11 +20713,11 @@
         <v>0</v>
       </c>
       <c r="Z79" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL79/T79,IF($I$12="AK",'Grid Emissions'!C58*0.000001,IF($I$12="DC",'Grid Emissions'!C65*0.000001,IF($I$12="HI",'Grid Emissions'!C69*0.000001,IF($I$12="PR",'Grid Emissions'!C97*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T79,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL79/T79,IF($I$12="AK",'Grid Emissions'!C58*0.000001,IF($I$12="DC",'Grid Emissions'!C65*0.000001,IF($I$12="HI",'Grid Emissions'!C69*0.000001,IF($I$12="PR",'Grid Emissions'!C97*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T79,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA79" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C58*0.000001,IF($I$12="DC",'Grid Emissions'!C65*0.000001,IF($I$12="HI",'Grid Emissions'!C69*0.000001,IF($I$12="PR",'Grid Emissions'!C97*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T79,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C58*0.000001,IF($I$12="DC",'Grid Emissions'!C65*0.000001,IF($I$12="HI",'Grid Emissions'!C69*0.000001,IF($I$12="PR",'Grid Emissions'!C97*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T79,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB79" s="204" t="e">
@@ -20793,7 +20793,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B80" s="243"/>
       <c r="C80" s="49"/>
       <c r="D80" s="146" t="str">
@@ -20882,11 +20882,11 @@
         <v>0</v>
       </c>
       <c r="Z80" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL80/T80,IF($I$12="AK",'Grid Emissions'!C59*0.000001,IF($I$12="DC",'Grid Emissions'!C66*0.000001,IF($I$12="HI",'Grid Emissions'!C70*0.000001,IF($I$12="PR",'Grid Emissions'!C98*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T80,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL80/T80,IF($I$12="AK",'Grid Emissions'!C59*0.000001,IF($I$12="DC",'Grid Emissions'!C66*0.000001,IF($I$12="HI",'Grid Emissions'!C70*0.000001,IF($I$12="PR",'Grid Emissions'!C98*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T80,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA80" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C59*0.000001,IF($I$12="DC",'Grid Emissions'!C66*0.000001,IF($I$12="HI",'Grid Emissions'!C70*0.000001,IF($I$12="PR",'Grid Emissions'!C98*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T80,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C59*0.000001,IF($I$12="DC",'Grid Emissions'!C66*0.000001,IF($I$12="HI",'Grid Emissions'!C70*0.000001,IF($I$12="PR",'Grid Emissions'!C98*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T80,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB80" s="204" t="e">
@@ -20962,7 +20962,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B81" s="243"/>
       <c r="C81" s="49"/>
       <c r="D81" s="146" t="str">
@@ -21051,11 +21051,11 @@
         <v>0</v>
       </c>
       <c r="Z81" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL81/T81,IF($I$12="AK",'Grid Emissions'!C60*0.000001,IF($I$12="DC",'Grid Emissions'!C67*0.000001,IF($I$12="HI",'Grid Emissions'!C71*0.000001,IF($I$12="PR",'Grid Emissions'!C99*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T81,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL81/T81,IF($I$12="AK",'Grid Emissions'!C60*0.000001,IF($I$12="DC",'Grid Emissions'!C67*0.000001,IF($I$12="HI",'Grid Emissions'!C71*0.000001,IF($I$12="PR",'Grid Emissions'!C99*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T81,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA81" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C60*0.000001,IF($I$12="DC",'Grid Emissions'!C67*0.000001,IF($I$12="HI",'Grid Emissions'!C71*0.000001,IF($I$12="PR",'Grid Emissions'!C99*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T81,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C60*0.000001,IF($I$12="DC",'Grid Emissions'!C67*0.000001,IF($I$12="HI",'Grid Emissions'!C71*0.000001,IF($I$12="PR",'Grid Emissions'!C99*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T81,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB81" s="204" t="e">
@@ -21131,7 +21131,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B82" s="243"/>
       <c r="C82" s="49"/>
       <c r="D82" s="146" t="str">
@@ -21220,11 +21220,11 @@
         <v>0</v>
       </c>
       <c r="Z82" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL82/T82,IF($I$12="AK",'Grid Emissions'!C61*0.000001,IF($I$12="DC",'Grid Emissions'!C68*0.000001,IF($I$12="HI",'Grid Emissions'!C72*0.000001,IF($I$12="PR",'Grid Emissions'!C100*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T82,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL82/T82,IF($I$12="AK",'Grid Emissions'!C61*0.000001,IF($I$12="DC",'Grid Emissions'!C68*0.000001,IF($I$12="HI",'Grid Emissions'!C72*0.000001,IF($I$12="PR",'Grid Emissions'!C100*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T82,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA82" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C61*0.000001,IF($I$12="DC",'Grid Emissions'!C68*0.000001,IF($I$12="HI",'Grid Emissions'!C72*0.000001,IF($I$12="PR",'Grid Emissions'!C100*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T82,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C61*0.000001,IF($I$12="DC",'Grid Emissions'!C68*0.000001,IF($I$12="HI",'Grid Emissions'!C72*0.000001,IF($I$12="PR",'Grid Emissions'!C100*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T82,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB82" s="204" t="e">
@@ -21300,7 +21300,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B83" s="243"/>
       <c r="C83" s="49"/>
       <c r="D83" s="146" t="str">
@@ -21389,11 +21389,11 @@
         <v>0</v>
       </c>
       <c r="Z83" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL83/T83,IF($I$12="AK",'Grid Emissions'!C62*0.000001,IF($I$12="DC",'Grid Emissions'!C69*0.000001,IF($I$12="HI",'Grid Emissions'!C73*0.000001,IF($I$12="PR",'Grid Emissions'!C101*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T83,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL83/T83,IF($I$12="AK",'Grid Emissions'!C62*0.000001,IF($I$12="DC",'Grid Emissions'!C69*0.000001,IF($I$12="HI",'Grid Emissions'!C73*0.000001,IF($I$12="PR",'Grid Emissions'!C101*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T83,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA83" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C62*0.000001,IF($I$12="DC",'Grid Emissions'!C69*0.000001,IF($I$12="HI",'Grid Emissions'!C73*0.000001,IF($I$12="PR",'Grid Emissions'!C101*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T83,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C62*0.000001,IF($I$12="DC",'Grid Emissions'!C69*0.000001,IF($I$12="HI",'Grid Emissions'!C73*0.000001,IF($I$12="PR",'Grid Emissions'!C101*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T83,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB83" s="204" t="e">
@@ -21469,7 +21469,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B84" s="243"/>
       <c r="C84" s="49"/>
       <c r="D84" s="146" t="str">
@@ -21558,11 +21558,11 @@
         <v>0</v>
       </c>
       <c r="Z84" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL84/T84,IF($I$12="AK",'Grid Emissions'!C63*0.000001,IF($I$12="DC",'Grid Emissions'!C70*0.000001,IF($I$12="HI",'Grid Emissions'!C74*0.000001,IF($I$12="PR",'Grid Emissions'!C102*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T84,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL84/T84,IF($I$12="AK",'Grid Emissions'!C63*0.000001,IF($I$12="DC",'Grid Emissions'!C70*0.000001,IF($I$12="HI",'Grid Emissions'!C74*0.000001,IF($I$12="PR",'Grid Emissions'!C102*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T84,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA84" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C63*0.000001,IF($I$12="DC",'Grid Emissions'!C70*0.000001,IF($I$12="HI",'Grid Emissions'!C74*0.000001,IF($I$12="PR",'Grid Emissions'!C102*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T84,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C63*0.000001,IF($I$12="DC",'Grid Emissions'!C70*0.000001,IF($I$12="HI",'Grid Emissions'!C74*0.000001,IF($I$12="PR",'Grid Emissions'!C102*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T84,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB84" s="204" t="e">
@@ -21638,7 +21638,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B85" s="243"/>
       <c r="C85" s="49"/>
       <c r="D85" s="146" t="str">
@@ -21727,11 +21727,11 @@
         <v>0</v>
       </c>
       <c r="Z85" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL85/T85,IF($I$12="AK",'Grid Emissions'!C64*0.000001,IF($I$12="DC",'Grid Emissions'!C71*0.000001,IF($I$12="HI",'Grid Emissions'!C75*0.000001,IF($I$12="PR",'Grid Emissions'!C103*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T85,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL85/T85,IF($I$12="AK",'Grid Emissions'!C64*0.000001,IF($I$12="DC",'Grid Emissions'!C71*0.000001,IF($I$12="HI",'Grid Emissions'!C75*0.000001,IF($I$12="PR",'Grid Emissions'!C103*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T85,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA85" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C64*0.000001,IF($I$12="DC",'Grid Emissions'!C71*0.000001,IF($I$12="HI",'Grid Emissions'!C75*0.000001,IF($I$12="PR",'Grid Emissions'!C103*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T85,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C64*0.000001,IF($I$12="DC",'Grid Emissions'!C71*0.000001,IF($I$12="HI",'Grid Emissions'!C75*0.000001,IF($I$12="PR",'Grid Emissions'!C103*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T85,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB85" s="204" t="e">
@@ -21807,7 +21807,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B86" s="243"/>
       <c r="C86" s="49"/>
       <c r="D86" s="146" t="str">
@@ -21896,11 +21896,11 @@
         <v>0</v>
       </c>
       <c r="Z86" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL86/T86,IF($I$12="AK",'Grid Emissions'!C65*0.000001,IF($I$12="DC",'Grid Emissions'!C72*0.000001,IF($I$12="HI",'Grid Emissions'!C76*0.000001,IF($I$12="PR",'Grid Emissions'!C104*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T86,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL86/T86,IF($I$12="AK",'Grid Emissions'!C65*0.000001,IF($I$12="DC",'Grid Emissions'!C72*0.000001,IF($I$12="HI",'Grid Emissions'!C76*0.000001,IF($I$12="PR",'Grid Emissions'!C104*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T86,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA86" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C65*0.000001,IF($I$12="DC",'Grid Emissions'!C72*0.000001,IF($I$12="HI",'Grid Emissions'!C76*0.000001,IF($I$12="PR",'Grid Emissions'!C104*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T86,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C65*0.000001,IF($I$12="DC",'Grid Emissions'!C72*0.000001,IF($I$12="HI",'Grid Emissions'!C76*0.000001,IF($I$12="PR",'Grid Emissions'!C104*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T86,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB86" s="204" t="e">
@@ -21976,7 +21976,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="243"/>
       <c r="C87" s="49"/>
       <c r="D87" s="147" t="str">
@@ -22065,11 +22065,11 @@
         <v>0</v>
       </c>
       <c r="Z87" s="204" t="e">
-        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL87/T87,IF($I$12="AK",'Grid Emissions'!C66*0.000001,IF($I$12="DC",'Grid Emissions'!C73*0.000001,IF($I$12="HI",'Grid Emissions'!C77*0.000001,IF($I$12="PR",'Grid Emissions'!C105*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T87,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12/100)))))))</f>
+        <f>IF(AND($G$12&lt;&gt;"",$G$14&lt;&gt;""),$G$12*AL87/T87,IF($I$12="AK",'Grid Emissions'!C66*0.000001,IF($I$12="DC",'Grid Emissions'!C73*0.000001,IF($I$12="HI",'Grid Emissions'!C77*0.000001,IF($I$12="PR",'Grid Emissions'!C105*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$4:$AF$52,MATCH(T87,'Grid Emission Forecast'!$B$4:$AF$4,0),FALSE)*0.000001)*(1-($O$12)))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AA87" s="204" t="e">
-        <f>IF($I$12="AK",'Grid Emissions'!C66*0.000001,IF($I$12="DC",'Grid Emissions'!C73*0.000001,IF($I$12="HI",'Grid Emissions'!C77*0.000001,IF($I$12="PR",'Grid Emissions'!C105*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T87,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12/100))))))</f>
+        <f>IF($I$12="AK",'Grid Emissions'!C66*0.000001,IF($I$12="DC",'Grid Emissions'!C73*0.000001,IF($I$12="HI",'Grid Emissions'!C77*0.000001,IF($I$12="PR",'Grid Emissions'!C105*0.000001,(VLOOKUP($I$12,'Grid Emission Forecast'!$B$57:$AF$105,MATCH(T87,'Grid Emission Forecast'!$B$57:$AF$57,0),FALSE)*0.000001)*(1-($O$12))))))</f>
         <v>#N/A</v>
       </c>
       <c r="AB87" s="204" t="e">
@@ -22147,20 +22147,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="B25:B87"/>
-    <mergeCell ref="E18:W19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:T21"/>
-    <mergeCell ref="U20:W21"/>
-    <mergeCell ref="J20:L21"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D5:E5"/>
@@ -22177,6 +22163,20 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B25:B87"/>
+    <mergeCell ref="E18:W19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:T21"/>
+    <mergeCell ref="U20:W21"/>
+    <mergeCell ref="J20:L21"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="J25:J87">
     <cfRule type="expression" dxfId="9" priority="9">
@@ -22278,14 +22278,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
         <v>136</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
         <v>137</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
         <v>164</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="34" t="s">
         <v>170</v>
       </c>
@@ -22411,7 +22411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="34" t="s">
         <v>171</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="34" t="s">
         <v>172</v>
       </c>
@@ -22433,14 +22433,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="295" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="296"/>
       <c r="D15" s="297"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="50" t="s">
         <v>165</v>
       </c>
@@ -22463,13 +22463,13 @@
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
@@ -22477,8 +22477,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="20" t="str">
         <f>'Inputs for Avoided CO2'!E22</f>
@@ -22497,7 +22497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
@@ -22507,13 +22507,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -22526,15 +22526,15 @@
       </c>
       <c r="E7" s="4">
         <f>IF(SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C7,'Inputs for Avoided CO2'!AE$25:AE$87)=0,"0",SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C7,'Inputs for Avoided CO2'!AE$25:AE$87))</f>
-        <v>82.036416783942997</v>
+        <v>76.754070581614258</v>
       </c>
       <c r="F7" s="4">
         <f>IFERROR(D7/E7,0)</f>
-        <v>-361.69960753227855</v>
+        <v>-386.59239215925572</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -22547,15 +22547,15 @@
       </c>
       <c r="E8" s="4">
         <f>IF(SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C8,'Inputs for Avoided CO2'!AE$25:AE$87)=0,"0",SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C8,'Inputs for Avoided CO2'!AE$25:AE$87))</f>
-        <v>196.8091499415641</v>
+        <v>219.96337141971736</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F10" si="0">IFERROR(D8/E8,0)</f>
-        <v>214.42489565303339</v>
+        <v>191.85367621619949</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
@@ -22568,15 +22568,15 @@
       </c>
       <c r="E9" s="4">
         <f>IF(SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C9,'Inputs for Avoided CO2'!AE$25:AE$87)=0,"0",SUMIF('Inputs for Avoided CO2'!$F$25:$F$87,$C9,'Inputs for Avoided CO2'!AE$25:AE$87))</f>
-        <v>8.4181047490084708</v>
+        <v>4.2302033914615427</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>-388.34936507236915</v>
+        <v>-772.8152364940147</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>4</v>
       </c>
@@ -22612,13 +22612,13 @@
       <selection activeCell="A2" sqref="A2:AK71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>-240.43906845109822</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>-192.19099289958913</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>89.272915056241288</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>290.9300362026442</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23281,12 +23281,12 @@
       <selection activeCell="A2" sqref="A2:Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20">
         <f>'Inputs for Avoided CO2'!C19</f>
         <v>0</v>
@@ -23301,7 +23301,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>-222.31291779490505</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>136.64541191978131</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>-21.950534773353876</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -23372,14 +23372,14 @@
       <selection activeCell="D44" sqref="D44:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C1" s="298" t="s">
         <v>74</v>
       </c>
@@ -23393,7 +23393,7 @@
       <c r="K1" s="298"/>
       <c r="L1" s="298"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="53" t="s">
         <v>214</v>
       </c>
@@ -23411,7 +23411,7 @@
       <c r="K2" s="300"/>
       <c r="L2" s="301"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>77</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>166</v>
       </c>
@@ -23465,7 +23465,7 @@
       <c r="K4" s="55"/>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>78</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>468.6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>79</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>469.5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>81</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>82</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>167</v>
       </c>
@@ -23694,7 +23694,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>337.1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>84</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>470.9</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>85</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>468.8</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>168</v>
       </c>
@@ -23818,7 +23818,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>86</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>502.2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>87</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>494.6</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>88</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>90</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>525.79999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>91</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>92</v>
       </c>
@@ -24063,7 +24063,7 @@
         <v>469.3</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>93</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>94</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>212.7</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>95</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>157.80000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>96</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>426.2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>436.2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>98</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>476.4</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>99</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>100</v>
       </c>
@@ -24343,7 +24343,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>101</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>102</v>
       </c>
@@ -24413,7 +24413,7 @@
         <v>500.5</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>103</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>512.79999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>104</v>
       </c>
@@ -24483,7 +24483,7 @@
         <v>375.6</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>105</v>
       </c>
@@ -24518,7 +24518,7 @@
         <v>242.3</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>106</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>107</v>
       </c>
@@ -24588,7 +24588,7 @@
         <v>299.8</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>108</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>109</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>461.6</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>110</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>470.6</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>111</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>112</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>169</v>
       </c>
@@ -24782,7 +24782,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="55"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>113</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>114</v>
       </c>
@@ -24852,7 +24852,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>115</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>116</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>483.8</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>117</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>118</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>494.1</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>119</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>120</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>142.1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>121</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>122</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>123</v>
       </c>
@@ -25167,7 +25167,7 @@
         <v>461.5</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>124</v>
       </c>
@@ -25220,14 +25220,14 @@
       <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="39"/>
-    <col min="34" max="34" width="9.1796875" style="59"/>
-    <col min="36" max="36" width="8.7265625" style="39"/>
+    <col min="2" max="2" width="8.7109375" style="39"/>
+    <col min="34" max="34" width="9.140625" style="59"/>
+    <col min="36" max="36" width="8.7109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B2" s="302" t="s">
         <v>175</v>
       </c>
@@ -25295,7 +25295,7 @@
       <c r="BM2" s="302"/>
       <c r="BN2" s="302"/>
     </row>
-    <row r="3" spans="2:66" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="302"/>
       <c r="C3" s="302"/>
       <c r="D3" s="302"/>
@@ -25359,7 +25359,7 @@
       <c r="BM3" s="302"/>
       <c r="BN3" s="302"/>
     </row>
-    <row r="4" spans="2:66" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="56" t="s">
         <v>174</v>
       </c>
@@ -25544,7 +25544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>78</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>195.7</v>
       </c>
     </row>
-    <row r="6" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>79</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="7" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>80</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
@@ -26412,7 +26412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>81</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="10" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>82</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>218.00000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>83</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>246.90000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>84</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>164.8</v>
       </c>
     </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="14" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>86</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>89.799999999999983</v>
       </c>
     </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>87</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>78.299999999999983</v>
       </c>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>88</v>
       </c>
@@ -28148,7 +28148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
         <v>89</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>221.8</v>
       </c>
     </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>90</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>91</v>
       </c>
@@ -28799,7 +28799,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="39" t="s">
         <v>92</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>184.89999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>93</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>116.29999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
         <v>94</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>95</v>
       </c>
@@ -29667,7 +29667,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
         <v>96</v>
       </c>
@@ -29884,7 +29884,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
         <v>97</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>40.699999999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>98</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
         <v>99</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>103.99999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
         <v>100</v>
       </c>
@@ -30752,7 +30752,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
         <v>101</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
         <v>102</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
         <v>103</v>
       </c>
@@ -31403,7 +31403,7 @@
         <v>47.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
         <v>104</v>
       </c>
@@ -31620,7 +31620,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
         <v>105</v>
       </c>
@@ -31837,7 +31837,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
         <v>106</v>
       </c>
@@ -32054,7 +32054,7 @@
         <v>3.5527136788005009E-15</v>
       </c>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
         <v>107</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>108</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>109</v>
       </c>
@@ -32705,7 +32705,7 @@
         <v>233.7</v>
       </c>
     </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
         <v>110</v>
       </c>
@@ -32922,7 +32922,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
         <v>111</v>
       </c>
@@ -33139,7 +33139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
         <v>112</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>263.39999999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
         <v>113</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
         <v>114</v>
       </c>
@@ -33790,7 +33790,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
         <v>115</v>
       </c>
@@ -34007,7 +34007,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
         <v>116</v>
       </c>
@@ -34224,7 +34224,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>117</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>96.700000000000017</v>
       </c>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
         <v>118</v>
       </c>
@@ -34658,7 +34658,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
         <v>119</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>7.1054273576010019E-15</v>
       </c>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="s">
         <v>120</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="49" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
         <v>121</v>
       </c>
@@ -35309,7 +35309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
         <v>122</v>
       </c>
@@ -35526,7 +35526,7 @@
         <v>158.89999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
         <v>123</v>
       </c>
@@ -35743,7 +35743,7 @@
         <v>262.89999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B52" s="39" t="s">
         <v>124</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>95.299999999999983</v>
       </c>
     </row>
-    <row r="55" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B55" s="302" t="s">
         <v>176</v>
       </c>
@@ -36028,7 +36028,7 @@
       <c r="BM55" s="302"/>
       <c r="BN55" s="302"/>
     </row>
-    <row r="56" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B56" s="302"/>
       <c r="C56" s="302"/>
       <c r="D56" s="302"/>
@@ -36092,7 +36092,7 @@
       <c r="BM56" s="302"/>
       <c r="BN56" s="302"/>
     </row>
-    <row r="57" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>1</v>
       </c>
@@ -36274,7 +36274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>78</v>
       </c>
@@ -36491,7 +36491,7 @@
         <v>468.6</v>
       </c>
     </row>
-    <row r="59" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>79</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>469.5</v>
       </c>
     </row>
-    <row r="60" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>80</v>
       </c>
@@ -36925,7 +36925,7 @@
         <v>420.99999999999994</v>
       </c>
     </row>
-    <row r="61" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
         <v>4</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>81</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
         <v>82</v>
       </c>
@@ -37576,7 +37576,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="64" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B64" s="39" t="s">
         <v>83</v>
       </c>
@@ -37793,7 +37793,7 @@
         <v>337.1</v>
       </c>
     </row>
-    <row r="65" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B65" s="39" t="s">
         <v>84</v>
       </c>
@@ -38010,7 +38010,7 @@
         <v>470.9</v>
       </c>
     </row>
-    <row r="66" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
         <v>85</v>
       </c>
@@ -38227,7 +38227,7 @@
         <v>468.8</v>
       </c>
     </row>
-    <row r="67" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
         <v>86</v>
       </c>
@@ -38444,7 +38444,7 @@
         <v>502.19999999999993</v>
       </c>
     </row>
-    <row r="68" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
         <v>87</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v>494.6</v>
       </c>
     </row>
-    <row r="69" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B69" s="39" t="s">
         <v>88</v>
       </c>
@@ -38878,7 +38878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
         <v>89</v>
       </c>
@@ -39095,7 +39095,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B71" s="39" t="s">
         <v>90</v>
       </c>
@@ -39312,7 +39312,7 @@
         <v>525.79999999999995</v>
       </c>
     </row>
-    <row r="72" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
         <v>91</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>483.00000000000006</v>
       </c>
     </row>
-    <row r="73" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
         <v>92</v>
       </c>
@@ -39746,7 +39746,7 @@
         <v>469.29999999999995</v>
       </c>
     </row>
-    <row r="74" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>93</v>
       </c>
@@ -39963,7 +39963,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
         <v>94</v>
       </c>
@@ -40180,7 +40180,7 @@
         <v>212.7</v>
       </c>
     </row>
-    <row r="76" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
         <v>95</v>
       </c>
@@ -40397,7 +40397,7 @@
         <v>157.80000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>96</v>
       </c>
@@ -40614,7 +40614,7 @@
         <v>426.19999999999993</v>
       </c>
     </row>
-    <row r="78" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B78" s="39" t="s">
         <v>97</v>
       </c>
@@ -40831,7 +40831,7 @@
         <v>436.19999999999993</v>
       </c>
     </row>
-    <row r="79" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>98</v>
       </c>
@@ -41048,7 +41048,7 @@
         <v>476.4</v>
       </c>
     </row>
-    <row r="80" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B80" s="39" t="s">
         <v>99</v>
       </c>
@@ -41265,7 +41265,7 @@
         <v>472.49999999999994</v>
       </c>
     </row>
-    <row r="81" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B81" s="39" t="s">
         <v>100</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B82" s="39" t="s">
         <v>101</v>
       </c>
@@ -41699,7 +41699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B83" s="39" t="s">
         <v>102</v>
       </c>
@@ -41916,7 +41916,7 @@
         <v>500.49999999999994</v>
       </c>
     </row>
-    <row r="84" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B84" s="39" t="s">
         <v>103</v>
       </c>
@@ -42133,7 +42133,7 @@
         <v>512.79999999999984</v>
       </c>
     </row>
-    <row r="85" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B85" s="39" t="s">
         <v>104</v>
       </c>
@@ -42350,7 +42350,7 @@
         <v>375.6</v>
       </c>
     </row>
-    <row r="86" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B86" s="39" t="s">
         <v>105</v>
       </c>
@@ -42567,7 +42567,7 @@
         <v>242.3</v>
       </c>
     </row>
-    <row r="87" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B87" s="39" t="s">
         <v>106</v>
       </c>
@@ -42784,7 +42784,7 @@
         <v>1.4210854715202004E-14</v>
       </c>
     </row>
-    <row r="88" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B88" s="39" t="s">
         <v>107</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>299.79999999999995</v>
       </c>
     </row>
-    <row r="89" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B89" s="39" t="s">
         <v>108</v>
       </c>
@@ -43218,7 +43218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B90" s="39" t="s">
         <v>109</v>
       </c>
@@ -43435,7 +43435,7 @@
         <v>461.6</v>
       </c>
     </row>
-    <row r="91" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B91" s="39" t="s">
         <v>110</v>
       </c>
@@ -43652,7 +43652,7 @@
         <v>470.6</v>
       </c>
     </row>
-    <row r="92" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B92" s="39" t="s">
         <v>111</v>
       </c>
@@ -43869,7 +43869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
         <v>112</v>
       </c>
@@ -44086,7 +44086,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="94" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B94" s="39" t="s">
         <v>113</v>
       </c>
@@ -44303,7 +44303,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="95" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B95" s="39" t="s">
         <v>114</v>
       </c>
@@ -44520,7 +44520,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="96" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B96" s="39" t="s">
         <v>115</v>
       </c>
@@ -44737,7 +44737,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B97" s="39" t="s">
         <v>116</v>
       </c>
@@ -44954,7 +44954,7 @@
         <v>483.8</v>
       </c>
     </row>
-    <row r="98" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B98" s="39" t="s">
         <v>117</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B99" s="39" t="s">
         <v>118</v>
       </c>
@@ -45388,7 +45388,7 @@
         <v>494.09999999999997</v>
       </c>
     </row>
-    <row r="100" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B100" s="39" t="s">
         <v>119</v>
       </c>
@@ -45605,7 +45605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B101" s="39" t="s">
         <v>120</v>
       </c>
@@ -45822,7 +45822,7 @@
         <v>142.1</v>
       </c>
     </row>
-    <row r="102" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B102" s="39" t="s">
         <v>121</v>
       </c>
@@ -46039,7 +46039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B103" s="39" t="s">
         <v>122</v>
       </c>
@@ -46256,7 +46256,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="104" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B104" s="39" t="s">
         <v>123</v>
       </c>
@@ -46473,7 +46473,7 @@
         <v>461.5</v>
       </c>
     </row>
-    <row r="105" spans="2:66" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B105" s="39" t="s">
         <v>124</v>
       </c>
